--- a/doc/naierPOS DB Schema(160620).xlsx
+++ b/doc/naierPOS DB Schema(160620).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="456" windowWidth="28716" windowHeight="17544" tabRatio="781" activeTab="10"/>
+    <workbookView xWindow="84" yWindow="456" windowWidth="28716" windowHeight="17544" tabRatio="781" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Lists" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="785">
   <si>
     <t>回首页</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -1008,10 +1008,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>þ</t>
   </si>
   <si>
@@ -3156,10 +3152,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>UK：Client＋Promotion＋ConditionType+Condition</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>销售单明细(SalesOrderDetails)</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3617,15 +3609,7 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1111111111111111111111111111111</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>1111111</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>NON</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -4816,10 +4800,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>PromotionOffer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>促销优惠</t>
     <rPh sb="2" eb="3">
       <t>you hui</t>
@@ -4952,10 +4932,6 @@
     <rPh sb="4" eb="5">
       <t>pi pei nei rong</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销条件(PromotionCondition)</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -5150,14 +5126,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Promotion</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Store.ID</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -5648,14 +5616,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>ItemDecimal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>TransDecimal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>商品金额舍去值</t>
     <rPh sb="0" eb="1">
       <t>shang pin</t>
@@ -5705,10 +5665,6 @@
     <rPh sb="5" eb="6">
       <t>she qu zhi</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemRoundDown</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -5995,10 +5951,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>PriceDecimal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>单价保留小数位数</t>
     <rPh sb="0" eb="1">
       <t>dan jia</t>
@@ -6226,10 +6178,6 @@
     <rPh sb="22" eb="23">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -6434,6 +6382,66 @@
     <rPh sb="4" eb="5">
       <t>zheng shu</t>
     </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111111111111111111111111111111</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销条件(PromotionCondition)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK：Client＋Promotion＋ConditionType+Condition</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>PromotionOffer</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceDecimal</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDecimal</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemRoundDown</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransDecimal</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaleRoundDown</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -6822,7 +6830,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7208,9 +7216,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7295,6 +7300,24 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7452,22 +7475,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7781,8 +7795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
@@ -7796,7 +7810,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1">
       <c r="A1" s="111" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B1" s="110" t="s">
         <v>10</v>
@@ -7805,54 +7819,54 @@
         <v>9</v>
       </c>
       <c r="D1" s="110" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>551</v>
-      </c>
-      <c r="C2" s="173" t="s">
-        <v>313</v>
+        <v>547</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>312</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="102" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>735</v>
-      </c>
-      <c r="C3" s="173" t="s">
-        <v>736</v>
+        <v>723</v>
+      </c>
+      <c r="C3" s="172" t="s">
+        <v>724</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="102" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="173" t="s">
-        <v>695</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="172" t="s">
+        <v>687</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="42" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B5" s="112" t="s">
         <v>121</v>
@@ -7861,26 +7875,26 @@
         <v>127</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="83" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="104" t="s">
-        <v>555</v>
-      </c>
-      <c r="B6" s="174" t="s">
-        <v>721</v>
+        <v>551</v>
+      </c>
+      <c r="B6" s="173" t="s">
+        <v>710</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="85" customFormat="1">
       <c r="A7" s="104" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B7" s="102" t="s">
         <v>119</v>
@@ -7892,19 +7906,19 @@
     </row>
     <row r="8" spans="1:4" s="85" customFormat="1">
       <c r="A8" s="104" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D8" s="102"/>
     </row>
     <row r="9" spans="1:4" s="37" customFormat="1">
       <c r="A9" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>123</v>
@@ -7916,10 +7930,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="114" t="s">
         <v>128</v>
@@ -7928,10 +7942,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C11" s="113" t="s">
         <v>53</v>
@@ -7940,7 +7954,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>105</v>
@@ -7952,7 +7966,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>113</v>
@@ -7964,7 +7978,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>112</v>
@@ -7976,34 +7990,34 @@
     </row>
     <row r="15" spans="1:4" s="79" customFormat="1">
       <c r="A15" s="102" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D15" s="102"/>
     </row>
     <row r="16" spans="1:4" s="79" customFormat="1">
       <c r="A16" s="102" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:4" ht="34.799999999999997">
       <c r="A17" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C17" s="113" t="s">
         <v>8</v>
@@ -8012,62 +8026,62 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="102" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>702</v>
-      </c>
-      <c r="C18" s="173" t="s">
-        <v>703</v>
+        <v>694</v>
+      </c>
+      <c r="C18" s="172" t="s">
+        <v>695</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="102" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>741</v>
-      </c>
-      <c r="C19" s="171" t="s">
-        <v>756</v>
+        <v>729</v>
+      </c>
+      <c r="C19" s="170" t="s">
+        <v>743</v>
       </c>
       <c r="D19" s="125" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" s="79" customFormat="1">
       <c r="A21" s="102" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B21" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C21" s="114" t="s">
         <v>437</v>
-      </c>
-      <c r="C21" s="114" t="s">
-        <v>438</v>
       </c>
       <c r="D21" s="102"/>
     </row>
     <row r="22" spans="1:4" ht="139.19999999999999">
       <c r="A22" s="102" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C22" s="114" t="s">
         <v>130</v>
@@ -8076,10 +8090,10 @@
     </row>
     <row r="23" spans="1:4" ht="69.599999999999994">
       <c r="A23" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="C23" s="114" t="s">
         <v>129</v>
@@ -8149,18 +8163,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="49" customFormat="1" ht="34.049999999999997" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -8185,7 +8199,7 @@
         <v>154</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>153</v>
@@ -8223,7 +8237,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -8238,7 +8252,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -8263,7 +8277,7 @@
       <c r="H6" s="68"/>
       <c r="I6" s="29"/>
       <c r="J6" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -8274,7 +8288,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>145</v>
@@ -8287,7 +8301,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="29"/>
       <c r="J7" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -8308,7 +8322,7 @@
         <v>136</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -8336,7 +8350,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="56"/>
       <c r="I9" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J9" s="54"/>
     </row>
@@ -8348,7 +8362,7 @@
         <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>134</v>
@@ -8361,7 +8375,7 @@
       <c r="H10" s="56"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
@@ -8372,7 +8386,7 @@
         <v>138</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>137</v>
@@ -8382,7 +8396,7 @@
       <c r="G11" s="38"/>
       <c r="H11" s="56"/>
       <c r="I11" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J11" s="54"/>
     </row>
@@ -8394,7 +8408,7 @@
         <v>135</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>134</v>
@@ -8405,22 +8419,22 @@
       <c r="H12" s="56"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="202" t="s">
-        <v>465</v>
-      </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
+      <c r="B14" s="207" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="202" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
+      <c r="B15" s="207" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8441,9 +8455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -8466,18 +8478,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>520</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="115" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -8502,7 +8514,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -8519,7 +8531,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>88</v>
@@ -8540,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>127</v>
@@ -8555,7 +8567,7 @@
       <c r="G5" s="71"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="71"/>
     </row>
@@ -8567,7 +8579,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>89</v>
@@ -8580,7 +8592,7 @@
       <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -8591,7 +8603,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>118</v>
@@ -8606,7 +8618,7 @@
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -8617,17 +8629,17 @@
         <v>43</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H8" s="56">
         <v>1</v>
@@ -8643,7 +8655,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>88</v>
@@ -8655,7 +8667,7 @@
       <c r="G9" s="42"/>
       <c r="H9" s="56"/>
       <c r="I9" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J9" s="42"/>
     </row>
@@ -8667,7 +8679,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>63</v>
@@ -8680,7 +8692,7 @@
       <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
@@ -8691,7 +8703,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>88</v>
@@ -8701,7 +8713,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="56"/>
       <c r="I11" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -8713,7 +8725,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>63</v>
@@ -8724,15 +8736,15 @@
       <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="202" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
+      <c r="B14" s="207" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8773,18 +8785,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -8803,13 +8815,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -8847,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -8862,7 +8874,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J5" s="38"/>
     </row>
@@ -8886,7 +8898,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="42" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J6" s="38"/>
     </row>
@@ -8895,13 +8907,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" s="100"/>
       <c r="F7" s="32" t="s">
@@ -8911,7 +8923,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="38" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -8934,7 +8946,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="42" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J8" s="38"/>
     </row>
@@ -8943,13 +8955,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="32" t="s">
@@ -8959,7 +8971,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="38" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
@@ -9002,7 +9014,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -9014,7 +9026,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>75</v>
@@ -9036,7 +9048,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>90</v>
@@ -9046,7 +9058,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J13" s="42"/>
     </row>
@@ -9058,7 +9070,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
@@ -9084,11 +9096,11 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="77"/>
-      <c r="B16" s="202" t="s">
-        <v>471</v>
-      </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
+      <c r="B16" s="207" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="77"/>
       <c r="F16" s="99"/>
       <c r="G16" s="75"/>
@@ -9348,18 +9360,18 @@
       <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -9378,13 +9390,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -9422,7 +9434,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -9437,7 +9449,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -9462,7 +9474,7 @@
       <c r="H6" s="96"/>
       <c r="I6" s="70"/>
       <c r="J6" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -9486,7 +9498,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="70"/>
       <c r="J7" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -9500,14 +9512,14 @@
         <v>95</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -9535,7 +9547,7 @@
       <c r="G9" s="71"/>
       <c r="H9" s="96"/>
       <c r="I9" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J9" s="42"/>
     </row>
@@ -9544,10 +9556,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>77</v>
@@ -9560,7 +9572,7 @@
       <c r="H10" s="96"/>
       <c r="I10" s="42"/>
       <c r="J10" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
@@ -9571,7 +9583,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>76</v>
@@ -9581,7 +9593,7 @@
       <c r="G11" s="71"/>
       <c r="H11" s="96"/>
       <c r="I11" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -9593,7 +9605,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>77</v>
@@ -9604,23 +9616,23 @@
       <c r="H12" s="96"/>
       <c r="I12" s="42"/>
       <c r="J12" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="8"/>
-      <c r="B14" s="202" t="s">
-        <v>479</v>
-      </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
+      <c r="B14" s="207" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="202" t="s">
-        <v>516</v>
-      </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
+      <c r="B15" s="207" t="s">
+        <v>514</v>
+      </c>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9672,18 +9684,18 @@
       <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -9702,13 +9714,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -9746,7 +9758,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -9761,7 +9773,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -9786,7 +9798,7 @@
       <c r="H6" s="96"/>
       <c r="I6" s="70"/>
       <c r="J6" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -9810,7 +9822,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="70"/>
       <c r="J7" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -9834,7 +9846,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="42"/>
       <c r="J8" s="47" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997">
@@ -9848,14 +9860,14 @@
         <v>100</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H9" s="92">
         <v>1</v>
@@ -9883,7 +9895,7 @@
       <c r="G10" s="71"/>
       <c r="H10" s="96"/>
       <c r="I10" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J10" s="42"/>
     </row>
@@ -9895,7 +9907,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>99</v>
@@ -9908,7 +9920,7 @@
       <c r="H11" s="96"/>
       <c r="I11" s="42"/>
       <c r="J11" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
@@ -9919,7 +9931,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>98</v>
@@ -9929,7 +9941,7 @@
       <c r="G12" s="71"/>
       <c r="H12" s="96"/>
       <c r="I12" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J12" s="42"/>
     </row>
@@ -9941,7 +9953,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>77</v>
@@ -9952,24 +9964,24 @@
       <c r="H13" s="96"/>
       <c r="I13" s="42"/>
       <c r="J13" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="8"/>
-      <c r="B15" s="202" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
+      <c r="B15" s="207" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="9"/>
-      <c r="B16" s="202" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
+      <c r="B16" s="207" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10011,18 +10023,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>523</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -10041,13 +10053,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -10085,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -10100,7 +10112,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -10112,7 +10124,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>86</v>
@@ -10125,7 +10137,7 @@
       <c r="H6" s="68"/>
       <c r="I6" s="29"/>
       <c r="J6" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -10136,7 +10148,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>87</v>
@@ -10149,7 +10161,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="29"/>
       <c r="J7" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -10170,7 +10182,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -10198,7 +10210,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="68"/>
       <c r="I9" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J9" s="42"/>
     </row>
@@ -10210,7 +10222,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>83</v>
@@ -10223,7 +10235,7 @@
       <c r="H10" s="68"/>
       <c r="I10" s="6"/>
       <c r="J10" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
@@ -10234,7 +10246,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>85</v>
@@ -10244,7 +10256,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="68"/>
       <c r="I11" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -10256,7 +10268,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>82</v>
@@ -10267,22 +10279,22 @@
       <c r="H12" s="68"/>
       <c r="I12" s="6"/>
       <c r="J12" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="202" t="s">
-        <v>521</v>
-      </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
+      <c r="B14" s="207" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="202" t="s">
-        <v>468</v>
-      </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
+      <c r="B15" s="207" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10324,18 +10336,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="188" t="s">
-        <v>522</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -10354,13 +10366,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -10398,7 +10410,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -10413,7 +10425,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -10422,10 +10434,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>62</v>
@@ -10434,11 +10446,11 @@
       <c r="F6" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="158"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="157"/>
       <c r="I6" s="102"/>
       <c r="J6" s="47" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -10449,10 +10461,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="32" t="s">
@@ -10462,7 +10474,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="29"/>
       <c r="J7" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -10483,7 +10495,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -10511,7 +10523,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="68"/>
       <c r="I9" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J9" s="18"/>
     </row>
@@ -10523,7 +10535,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>83</v>
@@ -10536,7 +10548,7 @@
       <c r="H10" s="68"/>
       <c r="I10" s="6"/>
       <c r="J10" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
@@ -10547,7 +10559,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>85</v>
@@ -10557,7 +10569,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="68"/>
       <c r="I11" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -10569,7 +10581,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>82</v>
@@ -10580,22 +10592,22 @@
       <c r="H12" s="68"/>
       <c r="I12" s="6"/>
       <c r="J12" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="203" t="s">
-        <v>465</v>
-      </c>
-      <c r="C14" s="204"/>
-      <c r="D14" s="205"/>
+      <c r="B14" s="208" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="209"/>
+      <c r="D14" s="210"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="199" t="s">
-        <v>458</v>
-      </c>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
+      <c r="B15" s="204" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="205"/>
+      <c r="D15" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10640,18 +10652,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="115" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -10670,13 +10682,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -10690,10 +10702,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>60</v>
@@ -10714,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>127</v>
@@ -10729,7 +10741,7 @@
       <c r="G5" s="71"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="71"/>
     </row>
@@ -10738,13 +10750,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" s="116"/>
       <c r="F6" s="32" t="s">
@@ -10754,7 +10766,7 @@
       <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -10762,10 +10774,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>74</v>
@@ -10778,7 +10790,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -10786,10 +10798,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>104</v>
@@ -10802,7 +10814,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
@@ -10810,10 +10822,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>60</v>
@@ -10832,10 +10844,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>60</v>
@@ -10854,10 +10866,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>60</v>
@@ -10869,7 +10881,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="56"/>
       <c r="I11" s="42" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -10878,10 +10890,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>303</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>60</v>
@@ -10893,7 +10905,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="56"/>
       <c r="I12" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J12" s="42"/>
     </row>
@@ -10902,15 +10914,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="167"/>
+        <v>299</v>
+      </c>
+      <c r="E13" s="166"/>
       <c r="F13" s="107" t="s">
         <v>30</v>
       </c>
@@ -10924,15 +10936,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>576</v>
-      </c>
-      <c r="E14" s="167"/>
+        <v>572</v>
+      </c>
+      <c r="E14" s="166"/>
       <c r="F14" s="107" t="s">
         <v>30</v>
       </c>
@@ -10948,15 +10960,15 @@
         <v>12</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>726</v>
-      </c>
-      <c r="E15" s="167"/>
+        <v>715</v>
+      </c>
+      <c r="E15" s="166"/>
       <c r="F15" s="107"/>
       <c r="G15" s="102"/>
       <c r="H15" s="105"/>
@@ -10968,27 +10980,27 @@
         <v>13</v>
       </c>
       <c r="B16" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="D16" s="102" t="s">
+        <v>559</v>
+      </c>
+      <c r="E16" s="166"/>
+      <c r="F16" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="D16" s="102" t="s">
-        <v>563</v>
-      </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>446</v>
-      </c>
-      <c r="H16" s="168">
+      <c r="H16" s="167">
         <v>0</v>
       </c>
       <c r="I16" s="102"/>
       <c r="J16" s="102" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34.799999999999997">
@@ -10996,10 +11008,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>59</v>
@@ -11009,7 +11021,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -11022,10 +11034,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>60</v>
@@ -11037,7 +11049,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="56"/>
       <c r="I18" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J18" s="42"/>
     </row>
@@ -11046,10 +11058,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>102</v>
@@ -11062,7 +11074,7 @@
       <c r="H19" s="56"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.399999999999999">
@@ -11070,10 +11082,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>60</v>
@@ -11083,7 +11095,7 @@
       <c r="G20" s="42"/>
       <c r="H20" s="56"/>
       <c r="I20" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J20" s="42"/>
     </row>
@@ -11092,10 +11104,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>102</v>
@@ -11106,7 +11118,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.399999999999999">
@@ -11114,13 +11126,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E22" s="118"/>
       <c r="F22" s="67"/>
@@ -11128,30 +11140,30 @@
       <c r="H22" s="56"/>
       <c r="I22" s="42"/>
       <c r="J22" s="102" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K22" s="64"/>
     </row>
     <row r="24" spans="1:11" ht="17.399999999999999">
-      <c r="B24" s="191" t="s">
+      <c r="B24" s="196" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.399999999999999">
+      <c r="B25" s="196" t="s">
         <v>474</v>
       </c>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.399999999999999">
-      <c r="B25" s="191" t="s">
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.399999999999999">
+      <c r="B26" s="196" t="s">
         <v>475</v>
       </c>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.399999999999999">
-      <c r="B26" s="191" t="s">
-        <v>476</v>
-      </c>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
     </row>
     <row r="27" spans="1:11" ht="17.399999999999999">
       <c r="A27" s="8"/>
@@ -11170,18 +11182,18 @@
       <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
-      <c r="A29" s="188" t="s">
-        <v>439</v>
-      </c>
-      <c r="B29" s="189"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="190"/>
+      <c r="A29" s="193" t="s">
+        <v>438</v>
+      </c>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="195"/>
     </row>
     <row r="30" spans="1:11" ht="34.799999999999997">
       <c r="A30" s="19" t="s">
@@ -11200,13 +11212,13 @@
         <v>29</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>34</v>
@@ -11220,10 +11232,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>60</v>
@@ -11244,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>127</v>
@@ -11259,7 +11271,7 @@
       <c r="G32" s="71"/>
       <c r="H32" s="96"/>
       <c r="I32" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J32" s="71"/>
     </row>
@@ -11268,10 +11280,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>60</v>
@@ -11292,10 +11304,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>60</v>
@@ -11307,7 +11319,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="56"/>
       <c r="I34" s="42" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J34" s="42"/>
     </row>
@@ -11316,10 +11328,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>60</v>
@@ -11331,7 +11343,7 @@
       <c r="G35" s="42"/>
       <c r="H35" s="56"/>
       <c r="I35" s="42" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J35" s="42"/>
     </row>
@@ -11340,15 +11352,15 @@
         <v>6</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>724</v>
-      </c>
-      <c r="E36" s="167"/>
+        <v>713</v>
+      </c>
+      <c r="E36" s="166"/>
       <c r="F36" s="107"/>
       <c r="G36" s="102"/>
       <c r="H36" s="105"/>
@@ -11360,10 +11372,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>59</v>
@@ -11373,7 +11385,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H37" s="56">
         <v>1</v>
@@ -11395,11 +11407,11 @@
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
       <c r="A39" s="49"/>
-      <c r="B39" s="184" t="s">
-        <v>473</v>
-      </c>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
+      <c r="B39" s="189" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="189"/>
+      <c r="D39" s="189"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="49"/>
@@ -11464,18 +11476,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>590</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -11494,13 +11506,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -11538,7 +11550,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -11553,7 +11565,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -11562,10 +11574,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>60</v>
@@ -11577,7 +11589,7 @@
       <c r="G6" s="70"/>
       <c r="H6" s="96"/>
       <c r="I6" s="42" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J6" s="70"/>
     </row>
@@ -11589,7 +11601,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>62</v>
@@ -11602,7 +11614,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="42"/>
       <c r="J7" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -11613,7 +11625,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>70</v>
@@ -11626,7 +11638,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="42"/>
       <c r="J8" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997">
@@ -11640,14 +11652,14 @@
         <v>33</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H9" s="92">
         <v>1</v>
@@ -11675,7 +11687,7 @@
       <c r="G10" s="71"/>
       <c r="H10" s="96"/>
       <c r="I10" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J10" s="38"/>
     </row>
@@ -11687,7 +11699,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>63</v>
@@ -11700,7 +11712,7 @@
       <c r="H11" s="96"/>
       <c r="I11" s="42"/>
       <c r="J11" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
@@ -11711,7 +11723,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>60</v>
@@ -11721,7 +11733,7 @@
       <c r="G12" s="71"/>
       <c r="H12" s="96"/>
       <c r="I12" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J12" s="42"/>
     </row>
@@ -11733,7 +11745,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>63</v>
@@ -11744,22 +11756,22 @@
       <c r="H13" s="96"/>
       <c r="I13" s="42"/>
       <c r="J13" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="199" t="s">
-        <v>595</v>
-      </c>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
+      <c r="B15" s="204" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" s="205"/>
+      <c r="D15" s="206"/>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
-      <c r="B16" s="206" t="s">
-        <v>596</v>
-      </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="208"/>
+      <c r="B16" s="211" t="s">
+        <v>592</v>
+      </c>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11780,8 +11792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11805,18 +11817,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="176" t="s">
-        <v>704</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178"/>
+      <c r="A2" s="181" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -11835,13 +11847,13 @@
         <v>155</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>154</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>153</v>
@@ -11855,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>2</v>
@@ -11879,7 +11891,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>127</v>
@@ -11894,7 +11906,7 @@
       <c r="G5" s="127"/>
       <c r="H5" s="130"/>
       <c r="I5" s="127" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="J5" s="127"/>
     </row>
@@ -11903,13 +11915,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
@@ -11921,7 +11933,7 @@
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -11929,13 +11941,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>708</v>
+        <v>781</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="32" t="s">
@@ -11947,7 +11959,7 @@
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="38" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -11955,13 +11967,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>714</v>
+        <v>782</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="107" t="s">
@@ -11973,7 +11985,7 @@
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="38" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="17.399999999999999">
@@ -11981,13 +11993,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>709</v>
+        <v>783</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="107" t="s">
@@ -11999,7 +12011,7 @@
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="38" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="17.399999999999999">
@@ -12007,13 +12019,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="107" t="s">
@@ -12025,28 +12037,28 @@
       </c>
       <c r="I10" s="47"/>
       <c r="J10" s="38" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="209" t="s">
-        <v>752</v>
-      </c>
-      <c r="C12" s="210"/>
-      <c r="D12" s="211"/>
+      <c r="B12" s="214" t="s">
+        <v>739</v>
+      </c>
+      <c r="C12" s="215"/>
+      <c r="D12" s="216"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="B13" s="212" t="s">
-        <v>753</v>
-      </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
+      <c r="B13" s="217" t="s">
+        <v>740</v>
+      </c>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12072,9 +12084,8 @@
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="81" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" style="81" bestFit="1" customWidth="1"/>
@@ -12084,54 +12095,54 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="176" t="s">
-        <v>611</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178"/>
+      <c r="A2" s="181" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="17.399999999999999">
@@ -12139,39 +12150,39 @@
         <v>1</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="182" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="146" customFormat="1" ht="17.399999999999999">
-      <c r="A5" s="145">
+      <c r="J4" s="187" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="145" customFormat="1" ht="17.399999999999999">
+      <c r="A5" s="144">
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="107" t="s">
@@ -12180,7 +12191,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="105"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="183"/>
+      <c r="J5" s="188"/>
     </row>
     <row r="6" spans="1:10" s="31" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="51">
@@ -12190,17 +12201,17 @@
         <v>167</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="32" t="s">
         <v>161</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H6" s="92">
         <v>1</v>
@@ -12209,7 +12220,7 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="145">
+      <c r="A7" s="144">
         <v>4</v>
       </c>
       <c r="B7" s="142" t="s">
@@ -12235,13 +12246,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="32" t="s">
@@ -12251,18 +12262,18 @@
       <c r="H8" s="56"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
-      <c r="A9" s="145">
+      <c r="A9" s="144">
         <v>6</v>
       </c>
       <c r="B9" s="142" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>162</v>
@@ -12279,13 +12290,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="56"/>
@@ -12293,15 +12304,15 @@
       <c r="H10" s="56"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="179" t="s">
-        <v>686</v>
-      </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="181"/>
+      <c r="B12" s="184" t="s">
+        <v>678</v>
+      </c>
+      <c r="C12" s="185"/>
+      <c r="D12" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12352,48 +12363,48 @@
       <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="213" t="s">
-        <v>754</v>
-      </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="215"/>
+      <c r="A2" s="218" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="E3" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="149" t="s">
-        <v>613</v>
-      </c>
-      <c r="G3" s="149" t="s">
+      <c r="F3" s="148" t="s">
+        <v>609</v>
+      </c>
+      <c r="G3" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="149" t="s">
-        <v>616</v>
-      </c>
-      <c r="I3" s="149" t="s">
+      <c r="H3" s="148" t="s">
+        <v>612</v>
+      </c>
+      <c r="I3" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="150" t="s">
+      <c r="J3" s="149" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12402,7 +12413,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="102" t="s">
         <v>2</v>
@@ -12422,11 +12433,11 @@
       <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999">
-      <c r="A5" s="145">
+      <c r="A5" s="144">
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>127</v>
@@ -12438,12 +12449,12 @@
       <c r="F5" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="151"/>
-      <c r="H5" s="158"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="157"/>
       <c r="I5" s="102" t="s">
-        <v>398</v>
-      </c>
-      <c r="J5" s="152"/>
+        <v>397</v>
+      </c>
+      <c r="J5" s="151"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
       <c r="A6" s="105">
@@ -12453,7 +12464,7 @@
         <v>123</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>60</v>
@@ -12462,35 +12473,35 @@
       <c r="F6" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="158"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="157"/>
       <c r="I6" s="102" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" s="152"/>
+        <v>224</v>
+      </c>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="145">
+      <c r="A7" s="144">
         <v>4</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="107"/>
       <c r="F7" s="107"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="158"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="157"/>
       <c r="I7" s="102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J7" s="139" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -12498,13 +12509,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D8" s="102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="105"/>
       <c r="F8" s="107" t="s">
@@ -12516,14 +12527,14 @@
       <c r="J8" s="139"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
-      <c r="A9" s="145">
+      <c r="A9" s="144">
         <v>6</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>69</v>
@@ -12542,63 +12553,63 @@
         <v>7</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="105"/>
       <c r="F10" s="107"/>
       <c r="G10" s="103" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H10" s="105">
         <v>0</v>
       </c>
       <c r="I10" s="102"/>
       <c r="J10" s="139" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
-      <c r="A11" s="153"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="155"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="A12" s="156"/>
-      <c r="B12" s="216" t="s">
-        <v>597</v>
-      </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="155"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="221" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" s="222"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="B13" s="191" t="s">
-        <v>620</v>
-      </c>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
+      <c r="B13" s="196" t="s">
+        <v>616</v>
+      </c>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12619,9 +12630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -12639,54 +12648,54 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="176" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178"/>
+      <c r="A2" s="181" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="17.399999999999999">
@@ -12694,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>2</v>
@@ -12718,7 +12727,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>776</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -12733,7 +12742,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -12742,13 +12751,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="107" t="s">
@@ -12757,7 +12766,7 @@
       <c r="G6" s="47"/>
       <c r="H6" s="105"/>
       <c r="I6" s="47" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="J6" s="128"/>
     </row>
@@ -12769,17 +12778,17 @@
         <v>167</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="32" t="s">
         <v>161</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H7" s="92">
         <v>1</v>
@@ -12807,7 +12816,7 @@
       <c r="G8" s="38"/>
       <c r="H8" s="56"/>
       <c r="I8" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J8" s="54"/>
     </row>
@@ -12816,13 +12825,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="32" t="s">
@@ -12832,7 +12841,7 @@
       <c r="H9" s="56"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
@@ -12843,7 +12852,7 @@
         <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>162</v>
@@ -12853,7 +12862,7 @@
       <c r="G10" s="38"/>
       <c r="H10" s="56"/>
       <c r="I10" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J10" s="54"/>
     </row>
@@ -12862,13 +12871,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="56"/>
@@ -12876,15 +12885,15 @@
       <c r="H11" s="56"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="B13" s="179" t="s">
-        <v>570</v>
-      </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="181"/>
+      <c r="B13" s="184" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="185"/>
+      <c r="D13" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12925,18 +12934,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="219" t="s">
-        <v>435</v>
-      </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="A2" s="224" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="226"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="17" t="s">
@@ -12955,19 +12964,19 @@
         <v>29</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999">
@@ -12975,19 +12984,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -12999,7 +13008,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -13014,7 +13023,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -13023,22 +13032,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>431</v>
-      </c>
       <c r="D6" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J6" s="38"/>
     </row>
@@ -13047,22 +13056,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J7" s="40"/>
     </row>
@@ -13071,22 +13080,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>180</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>181</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J8" s="40"/>
     </row>
@@ -13094,68 +13103,68 @@
       <c r="A9" s="57">
         <v>6</v>
       </c>
-      <c r="B9" s="169" t="s">
-        <v>433</v>
-      </c>
-      <c r="C9" s="169" t="s">
-        <v>178</v>
+      <c r="B9" s="168" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="168" t="s">
+        <v>177</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="E9" s="170"/>
+        <v>435</v>
+      </c>
+      <c r="E9" s="169"/>
       <c r="F9" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169" t="s">
-        <v>574</v>
+        <v>168</v>
+      </c>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="169" t="s">
-        <v>548</v>
+      <c r="C10" s="168" t="s">
+        <v>544</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="170"/>
+        <v>268</v>
+      </c>
+      <c r="E10" s="169"/>
       <c r="F10" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
+        <v>168</v>
+      </c>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
       <c r="A11" s="57">
         <v>8</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="169" t="s">
-        <v>571</v>
+      <c r="C11" s="168" t="s">
+        <v>567</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="E11" s="170"/>
+        <v>568</v>
+      </c>
+      <c r="E11" s="169"/>
       <c r="F11" s="107"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169" t="s">
-        <v>573</v>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
@@ -13178,7 +13187,7 @@
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J12" s="54"/>
     </row>
@@ -13187,13 +13196,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="32" t="s">
@@ -13203,7 +13212,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
@@ -13224,7 +13233,7 @@
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J14" s="54"/>
     </row>
@@ -13233,13 +13242,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="51"/>
@@ -13247,15 +13256,15 @@
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="17.399999999999999">
-      <c r="B17" s="202" t="s">
-        <v>477</v>
-      </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
+      <c r="B17" s="207" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13287,7 +13296,7 @@
     <col min="7" max="7" width="19.33203125" style="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74.33203125" style="160" customWidth="1"/>
+    <col min="10" max="10" width="74.33203125" style="159" customWidth="1"/>
     <col min="11" max="11" width="7" style="49" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.77734375" style="49"/>
   </cols>
@@ -13304,18 +13313,18 @@
       <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="222" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="224"/>
+      <c r="A2" s="227" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="229"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="17" t="s">
@@ -13334,13 +13343,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>34</v>
@@ -13378,7 +13387,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>127</v>
@@ -13393,7 +13402,7 @@
       <c r="G5" s="71"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="43"/>
     </row>
@@ -13405,7 +13414,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>62</v>
@@ -13418,7 +13427,7 @@
       <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="31" customFormat="1">
@@ -13429,10 +13438,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="32" t="s">
@@ -13442,7 +13451,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="43" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1">
@@ -13450,13 +13459,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="32"/>
@@ -13473,10 +13482,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="32" t="s">
@@ -13495,10 +13504,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="32"/>
@@ -13512,13 +13521,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="58"/>
@@ -13526,7 +13535,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="66"/>
       <c r="J11" s="43" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="64" customFormat="1">
@@ -13534,13 +13543,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="58"/>
@@ -13548,7 +13557,7 @@
       <c r="H12" s="120"/>
       <c r="I12" s="66"/>
       <c r="J12" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="64" customFormat="1" ht="34.799999999999997">
@@ -13556,27 +13565,27 @@
         <v>10</v>
       </c>
       <c r="B13" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>415</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>416</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="53" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H13" s="121">
         <v>0</v>
       </c>
       <c r="I13" s="87"/>
       <c r="J13" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="31" customFormat="1" ht="34.799999999999997">
@@ -13584,23 +13593,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="32"/>
       <c r="G14" s="29"/>
       <c r="H14" s="122" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="31" customFormat="1" ht="61.05" customHeight="1">
@@ -13608,23 +13617,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="32"/>
       <c r="G15" s="29"/>
       <c r="H15" s="122" t="s">
-        <v>538</v>
+        <v>770</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="61" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="31" customFormat="1" ht="52.2">
@@ -13632,27 +13641,27 @@
         <v>13</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>540</v>
+        <v>771</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="43" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1" ht="87">
@@ -13660,21 +13669,21 @@
         <v>14</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="32"/>
       <c r="G17" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="43"/>
@@ -13684,13 +13693,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="32"/>
@@ -13698,14 +13707,14 @@
       <c r="H18" s="92"/>
       <c r="I18" s="42"/>
       <c r="J18" s="43" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="34.799999999999997">
       <c r="A19" s="56">
         <v>16</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="143" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -13719,7 +13728,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H19" s="92">
         <v>1</v>
@@ -13731,7 +13740,7 @@
       <c r="A20" s="56">
         <v>17</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="143" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -13747,7 +13756,7 @@
       <c r="G20" s="42"/>
       <c r="H20" s="56"/>
       <c r="I20" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J20" s="43"/>
     </row>
@@ -13755,7 +13764,7 @@
       <c r="A21" s="56">
         <v>18</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="143" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -13772,14 +13781,14 @@
       <c r="H21" s="56"/>
       <c r="I21" s="42"/>
       <c r="J21" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="56">
         <v>19</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="143" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -13793,7 +13802,7 @@
       <c r="G22" s="42"/>
       <c r="H22" s="56"/>
       <c r="I22" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J22" s="43"/>
     </row>
@@ -13801,7 +13810,7 @@
       <c r="A23" s="56">
         <v>20</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="143" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -13816,52 +13825,52 @@
       <c r="H23" s="56"/>
       <c r="I23" s="42"/>
       <c r="J23" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="225" t="s">
-        <v>465</v>
-      </c>
-      <c r="C25" s="226"/>
-      <c r="D25" s="227"/>
+      <c r="B25" s="230" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="184" t="s">
-        <v>543</v>
-      </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
+      <c r="B26" s="189" t="s">
+        <v>539</v>
+      </c>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="157"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="222" t="s">
-        <v>637</v>
-      </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="224"/>
+      <c r="A28" s="227" t="s">
+        <v>632</v>
+      </c>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="229"/>
     </row>
     <row r="29" spans="1:10" ht="34.799999999999997">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D29" s="82" t="s">
         <v>28</v>
@@ -13870,19 +13879,19 @@
         <v>29</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G29" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I29" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J29" s="82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -13914,7 +13923,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>127</v>
@@ -13929,7 +13938,7 @@
       <c r="G31" s="71"/>
       <c r="H31" s="96"/>
       <c r="I31" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J31" s="43"/>
     </row>
@@ -13938,10 +13947,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>68</v>
@@ -13953,77 +13962,77 @@
       <c r="G32" s="42"/>
       <c r="H32" s="56"/>
       <c r="I32" s="42" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="56">
+    <row r="33" spans="1:10" s="235" customFormat="1">
+      <c r="A33" s="175">
         <v>4</v>
       </c>
-      <c r="B33" s="143" t="s">
-        <v>641</v>
-      </c>
-      <c r="C33" s="143" t="s">
-        <v>569</v>
-      </c>
-      <c r="D33" s="143" t="s">
-        <v>642</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="42" t="s">
-        <v>643</v>
-      </c>
-      <c r="J33" s="43"/>
+      <c r="B33" s="233" t="s">
+        <v>636</v>
+      </c>
+      <c r="C33" s="233" t="s">
+        <v>565</v>
+      </c>
+      <c r="D33" s="233" t="s">
+        <v>637</v>
+      </c>
+      <c r="E33" s="175"/>
+      <c r="F33" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="176"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="J33" s="234"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="157"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="157"/>
-      <c r="B35" s="184" t="s">
-        <v>644</v>
-      </c>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="189" t="s">
+        <v>639</v>
+      </c>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="157"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="222" t="s">
-        <v>631</v>
-      </c>
-      <c r="B37" s="223"/>
-      <c r="C37" s="223"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="224"/>
+      <c r="A37" s="227" t="s">
+        <v>627</v>
+      </c>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="228"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="228"/>
+      <c r="J37" s="229"/>
     </row>
     <row r="38" spans="1:10" ht="34.799999999999997">
       <c r="A38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="82" t="s">
         <v>28</v>
@@ -14032,19 +14041,19 @@
         <v>29</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G38" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H38" s="82" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I38" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J38" s="82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -14058,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>30</v>
@@ -14076,7 +14085,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>127</v>
@@ -14091,19 +14100,19 @@
       <c r="G40" s="71"/>
       <c r="H40" s="96"/>
       <c r="I40" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="J40" s="159"/>
+        <v>399</v>
+      </c>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="56">
         <v>3</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>61</v>
@@ -14115,7 +14124,7 @@
       <c r="G41" s="42"/>
       <c r="H41" s="56"/>
       <c r="I41" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J41" s="43"/>
     </row>
@@ -14124,23 +14133,23 @@
         <v>4</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="32" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="96"/>
       <c r="I42" s="42"/>
       <c r="J42" s="43" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="87">
@@ -14148,23 +14157,23 @@
         <v>5</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="32" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="56"/>
       <c r="I43" s="42"/>
       <c r="J43" s="43" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="52.2">
@@ -14172,13 +14181,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="32"/>
@@ -14186,45 +14195,45 @@
       <c r="H44" s="56"/>
       <c r="I44" s="42"/>
       <c r="J44" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="184" t="s">
-        <v>664</v>
-      </c>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
+      <c r="B46" s="189" t="s">
+        <v>658</v>
+      </c>
+      <c r="C46" s="189"/>
+      <c r="D46" s="189"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="157"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="222" t="s">
-        <v>651</v>
-      </c>
-      <c r="B48" s="223"/>
-      <c r="C48" s="223"/>
-      <c r="D48" s="223"/>
-      <c r="E48" s="223"/>
-      <c r="F48" s="223"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="223"/>
-      <c r="J48" s="224"/>
+      <c r="A48" s="227" t="s">
+        <v>646</v>
+      </c>
+      <c r="B48" s="228"/>
+      <c r="C48" s="228"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="228"/>
+      <c r="I48" s="228"/>
+      <c r="J48" s="229"/>
     </row>
     <row r="49" spans="1:10" ht="34.799999999999997">
       <c r="A49" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D49" s="82" t="s">
         <v>28</v>
@@ -14233,19 +14242,19 @@
         <v>29</v>
       </c>
       <c r="F49" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G49" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H49" s="82" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I49" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J49" s="82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -14259,7 +14268,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>30</v>
@@ -14277,7 +14286,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>127</v>
@@ -14292,19 +14301,19 @@
       <c r="G51" s="71"/>
       <c r="H51" s="96"/>
       <c r="I51" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="J51" s="159"/>
+        <v>399</v>
+      </c>
+      <c r="J51" s="158"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="56">
         <v>3</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D52" s="42" t="s">
         <v>61</v>
@@ -14316,7 +14325,7 @@
       <c r="G52" s="42"/>
       <c r="H52" s="56"/>
       <c r="I52" s="42" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="J52" s="43"/>
     </row>
@@ -14325,10 +14334,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D53" s="42" t="s">
         <v>61</v>
@@ -14341,39 +14350,39 @@
       <c r="H53" s="56"/>
       <c r="I53" s="42"/>
       <c r="J53" s="43" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="184" t="s">
-        <v>660</v>
-      </c>
-      <c r="C55" s="184"/>
-      <c r="D55" s="184"/>
+      <c r="B55" s="189" t="s">
+        <v>654</v>
+      </c>
+      <c r="C55" s="189"/>
+      <c r="D55" s="189"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="222" t="s">
-        <v>652</v>
-      </c>
-      <c r="B57" s="223"/>
-      <c r="C57" s="223"/>
-      <c r="D57" s="223"/>
-      <c r="E57" s="223"/>
-      <c r="F57" s="223"/>
-      <c r="G57" s="223"/>
-      <c r="H57" s="223"/>
-      <c r="I57" s="223"/>
-      <c r="J57" s="224"/>
+      <c r="A57" s="227" t="s">
+        <v>772</v>
+      </c>
+      <c r="B57" s="228"/>
+      <c r="C57" s="228"/>
+      <c r="D57" s="228"/>
+      <c r="E57" s="228"/>
+      <c r="F57" s="228"/>
+      <c r="G57" s="228"/>
+      <c r="H57" s="228"/>
+      <c r="I57" s="228"/>
+      <c r="J57" s="229"/>
     </row>
     <row r="58" spans="1:10" ht="34.799999999999997">
       <c r="A58" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D58" s="82" t="s">
         <v>28</v>
@@ -14382,19 +14391,19 @@
         <v>29</v>
       </c>
       <c r="F58" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G58" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H58" s="82" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I58" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J58" s="82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -14408,7 +14417,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>30</v>
@@ -14426,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>127</v>
@@ -14441,19 +14450,19 @@
       <c r="G60" s="71"/>
       <c r="H60" s="96"/>
       <c r="I60" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="J60" s="159"/>
+        <v>399</v>
+      </c>
+      <c r="J60" s="158"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="56">
         <v>3</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>632</v>
+        <v>774</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>61</v>
@@ -14465,7 +14474,7 @@
       <c r="G61" s="42"/>
       <c r="H61" s="56"/>
       <c r="I61" s="42" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="J61" s="43"/>
     </row>
@@ -14474,13 +14483,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E62" s="56"/>
       <c r="F62" s="32" t="s">
@@ -14490,7 +14499,7 @@
       <c r="H62" s="56"/>
       <c r="I62" s="42"/>
       <c r="J62" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="52.2">
@@ -14498,13 +14507,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E63" s="56"/>
       <c r="F63" s="32" t="s">
@@ -14514,7 +14523,7 @@
       <c r="H63" s="56"/>
       <c r="I63" s="42"/>
       <c r="J63" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="69.599999999999994">
@@ -14522,13 +14531,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E64" s="56"/>
       <c r="F64" s="32"/>
@@ -14536,7 +14545,7 @@
       <c r="H64" s="56"/>
       <c r="I64" s="42"/>
       <c r="J64" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="69.599999999999994">
@@ -14544,13 +14553,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E65" s="56"/>
       <c r="F65" s="32"/>
@@ -14558,39 +14567,39 @@
       <c r="H65" s="56"/>
       <c r="I65" s="42"/>
       <c r="J65" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="225" t="s">
-        <v>494</v>
-      </c>
-      <c r="C67" s="226"/>
-      <c r="D67" s="227"/>
+      <c r="B67" s="230" t="s">
+        <v>773</v>
+      </c>
+      <c r="C67" s="231"/>
+      <c r="D67" s="232"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="222" t="s">
-        <v>653</v>
-      </c>
-      <c r="B69" s="223"/>
-      <c r="C69" s="223"/>
-      <c r="D69" s="223"/>
-      <c r="E69" s="223"/>
-      <c r="F69" s="223"/>
-      <c r="G69" s="223"/>
-      <c r="H69" s="223"/>
-      <c r="I69" s="223"/>
-      <c r="J69" s="224"/>
+      <c r="A69" s="227" t="s">
+        <v>647</v>
+      </c>
+      <c r="B69" s="228"/>
+      <c r="C69" s="228"/>
+      <c r="D69" s="228"/>
+      <c r="E69" s="228"/>
+      <c r="F69" s="228"/>
+      <c r="G69" s="228"/>
+      <c r="H69" s="228"/>
+      <c r="I69" s="228"/>
+      <c r="J69" s="229"/>
     </row>
     <row r="70" spans="1:10" ht="34.799999999999997">
       <c r="A70" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B70" s="82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C70" s="82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="82" t="s">
         <v>28</v>
@@ -14599,19 +14608,19 @@
         <v>29</v>
       </c>
       <c r="F70" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G70" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H70" s="82" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I70" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J70" s="82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -14625,7 +14634,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>30</v>
@@ -14643,7 +14652,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C72" s="42" t="s">
         <v>127</v>
@@ -14658,19 +14667,19 @@
       <c r="G72" s="71"/>
       <c r="H72" s="96"/>
       <c r="I72" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="J72" s="159"/>
+        <v>399</v>
+      </c>
+      <c r="J72" s="158"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="56">
         <v>3</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D73" s="42" t="s">
         <v>61</v>
@@ -14682,7 +14691,7 @@
       <c r="G73" s="42"/>
       <c r="H73" s="56"/>
       <c r="I73" s="42" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="J73" s="43"/>
     </row>
@@ -14691,10 +14700,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>61</v>
@@ -14706,32 +14715,32 @@
       <c r="G74" s="42"/>
       <c r="H74" s="56"/>
       <c r="I74" s="43" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="B76" s="184" t="s">
-        <v>650</v>
-      </c>
-      <c r="C76" s="184"/>
-      <c r="D76" s="184"/>
+      <c r="B76" s="189" t="s">
+        <v>645</v>
+      </c>
+      <c r="C76" s="189"/>
+      <c r="D76" s="189"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="222" t="s">
-        <v>665</v>
-      </c>
-      <c r="B78" s="223"/>
-      <c r="C78" s="223"/>
-      <c r="D78" s="223"/>
-      <c r="E78" s="223"/>
-      <c r="F78" s="223"/>
-      <c r="G78" s="223"/>
-      <c r="H78" s="223"/>
-      <c r="I78" s="223"/>
-      <c r="J78" s="224"/>
+      <c r="A78" s="227" t="s">
+        <v>659</v>
+      </c>
+      <c r="B78" s="228"/>
+      <c r="C78" s="228"/>
+      <c r="D78" s="228"/>
+      <c r="E78" s="228"/>
+      <c r="F78" s="228"/>
+      <c r="G78" s="228"/>
+      <c r="H78" s="228"/>
+      <c r="I78" s="228"/>
+      <c r="J78" s="229"/>
     </row>
     <row r="79" spans="1:10" ht="34.799999999999997">
       <c r="A79" s="17" t="s">
@@ -14750,13 +14759,13 @@
         <v>29</v>
       </c>
       <c r="F79" s="82" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G79" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H79" s="82" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I79" s="82" t="s">
         <v>34</v>
@@ -14770,7 +14779,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>13</v>
+        <v>775</v>
       </c>
       <c r="C80" s="42" t="s">
         <v>2</v>
@@ -14794,7 +14803,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>396</v>
+        <v>776</v>
       </c>
       <c r="C81" s="42" t="s">
         <v>127</v>
@@ -14809,7 +14818,7 @@
       <c r="G81" s="71"/>
       <c r="H81" s="96"/>
       <c r="I81" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J81" s="43"/>
     </row>
@@ -14818,10 +14827,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D82" s="42" t="s">
         <v>68</v>
@@ -14833,7 +14842,7 @@
       <c r="G82" s="42"/>
       <c r="H82" s="56"/>
       <c r="I82" s="42" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J82" s="43"/>
     </row>
@@ -14842,10 +14851,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>667</v>
+        <v>587</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>68</v>
@@ -14857,7 +14866,7 @@
       <c r="G83" s="42"/>
       <c r="H83" s="56"/>
       <c r="I83" s="42" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="J83" s="43"/>
     </row>
@@ -14866,13 +14875,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>72</v>
+        <v>777</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>177</v>
+        <v>778</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E84" s="56"/>
       <c r="F84" s="56"/>
@@ -14880,7 +14889,7 @@
       <c r="H84" s="56"/>
       <c r="I84" s="42"/>
       <c r="J84" s="43" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -14891,10 +14900,10 @@
         <v>73</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>176</v>
+        <v>779</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E85" s="56"/>
       <c r="F85" s="56"/>
@@ -14902,24 +14911,18 @@
       <c r="H85" s="56"/>
       <c r="I85" s="42"/>
       <c r="J85" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="B87" s="184" t="s">
-        <v>672</v>
-      </c>
-      <c r="C87" s="184"/>
-      <c r="D87" s="184"/>
+      <c r="B87" s="189" t="s">
+        <v>664</v>
+      </c>
+      <c r="C87" s="189"/>
+      <c r="D87" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A78:J78"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B46:D46"/>
@@ -14929,6 +14932,12 @@
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -14972,18 +14981,18 @@
       <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="222" t="s">
-        <v>769</v>
-      </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="224"/>
+      <c r="A2" s="227" t="s">
+        <v>756</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="229"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -15002,13 +15011,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>34</v>
@@ -15046,7 +15055,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -15061,7 +15070,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J5" s="134"/>
     </row>
@@ -15070,13 +15079,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="32" t="s">
@@ -15085,10 +15094,10 @@
       <c r="G6" s="42"/>
       <c r="H6" s="56"/>
       <c r="I6" s="42" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="J6" s="135" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -15096,7 +15105,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>131</v>
@@ -15111,7 +15120,7 @@
       <c r="G7" s="42"/>
       <c r="H7" s="56"/>
       <c r="I7" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J7" s="131"/>
     </row>
@@ -15120,10 +15129,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>60</v>
@@ -15133,10 +15142,10 @@
       <c r="G8" s="102"/>
       <c r="H8" s="105"/>
       <c r="I8" s="102" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J8" s="139" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15144,13 +15153,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>319</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>320</v>
       </c>
       <c r="E9" s="60"/>
       <c r="F9" s="53" t="s">
@@ -15169,7 +15178,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>69</v>
@@ -15182,7 +15191,7 @@
       <c r="H10" s="56"/>
       <c r="I10" s="42"/>
       <c r="J10" s="131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15190,10 +15199,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>60</v>
@@ -15204,7 +15213,7 @@
       <c r="H11" s="60"/>
       <c r="I11" s="44"/>
       <c r="J11" s="136" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15212,13 +15221,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="53"/>
@@ -15226,7 +15235,7 @@
       <c r="H12" s="60"/>
       <c r="I12" s="44"/>
       <c r="J12" s="136" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15234,10 +15243,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>60</v>
@@ -15247,7 +15256,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="60"/>
       <c r="I13" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J13" s="136"/>
     </row>
@@ -15256,17 +15265,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" s="60"/>
       <c r="F14" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="60">
@@ -15274,7 +15283,7 @@
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15282,17 +15291,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="60">
@@ -15300,7 +15309,7 @@
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15308,17 +15317,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E16" s="60"/>
       <c r="F16" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="60">
@@ -15326,7 +15335,7 @@
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15334,13 +15343,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="D17" s="104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="108" t="s">
@@ -15352,7 +15361,7 @@
       </c>
       <c r="I17" s="104"/>
       <c r="J17" s="140" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15360,17 +15369,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E18" s="60"/>
       <c r="F18" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="60">
@@ -15378,7 +15387,7 @@
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="136" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15386,17 +15395,17 @@
         <v>16</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="60">
@@ -15404,7 +15413,7 @@
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15412,17 +15421,17 @@
         <v>17</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="60">
@@ -15430,7 +15439,7 @@
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="59" customFormat="1" ht="34.799999999999997">
@@ -15438,20 +15447,20 @@
         <v>18</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="53" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H21" s="60">
         <v>0</v>
@@ -15464,23 +15473,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="60"/>
       <c r="F22" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="62"/>
@@ -15490,7 +15499,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>22</v>
@@ -15505,7 +15514,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="60"/>
       <c r="I23" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J23" s="136"/>
     </row>
@@ -15517,7 +15526,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>63</v>
@@ -15529,8 +15538,8 @@
       <c r="G24" s="44"/>
       <c r="H24" s="60"/>
       <c r="I24" s="44"/>
-      <c r="J24" s="148" t="s">
-        <v>549</v>
+      <c r="J24" s="147" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15538,10 +15547,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>63</v>
@@ -15554,7 +15563,7 @@
       <c r="H25" s="60"/>
       <c r="I25" s="44"/>
       <c r="J25" s="140" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
@@ -15570,11 +15579,11 @@
       <c r="J26" s="137"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="B27" s="225" t="s">
-        <v>480</v>
-      </c>
-      <c r="C27" s="226"/>
-      <c r="D27" s="227"/>
+      <c r="B27" s="230" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="49"/>
@@ -15595,49 +15604,49 @@
       <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="222" t="s">
-        <v>495</v>
-      </c>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="224"/>
+      <c r="A29" s="227" t="s">
+        <v>493</v>
+      </c>
+      <c r="B29" s="228"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="229"/>
     </row>
     <row r="30" spans="1:10" ht="34.799999999999997">
       <c r="A30" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E30" s="82" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J30" s="133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999">
@@ -15669,7 +15678,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>127</v>
@@ -15684,7 +15693,7 @@
       <c r="G32" s="70"/>
       <c r="H32" s="96"/>
       <c r="I32" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J32" s="134"/>
     </row>
@@ -15693,10 +15702,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>60</v>
@@ -15708,7 +15717,7 @@
       <c r="G33" s="42"/>
       <c r="H33" s="56"/>
       <c r="I33" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J33" s="131"/>
     </row>
@@ -15717,13 +15726,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E34" s="105"/>
       <c r="F34" s="107" t="s">
@@ -15733,7 +15742,7 @@
       <c r="H34" s="105"/>
       <c r="I34" s="102"/>
       <c r="J34" s="138" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
@@ -15741,10 +15750,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="D35" s="102" t="s">
         <v>60</v>
@@ -15756,7 +15765,7 @@
       <c r="G35" s="102"/>
       <c r="H35" s="105"/>
       <c r="I35" s="102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J35" s="139"/>
     </row>
@@ -15765,10 +15774,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D36" s="102" t="s">
         <v>60</v>
@@ -15778,10 +15787,10 @@
       <c r="G36" s="102"/>
       <c r="H36" s="105"/>
       <c r="I36" s="102" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J36" s="139" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
@@ -15789,10 +15798,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D37" s="104" t="s">
         <v>63</v>
@@ -15811,10 +15820,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="102" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" s="102" t="s">
         <v>69</v>
@@ -15827,7 +15836,7 @@
       <c r="H38" s="105"/>
       <c r="I38" s="102"/>
       <c r="J38" s="140" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
@@ -15835,10 +15844,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="104" t="s">
         <v>69</v>
@@ -15851,7 +15860,7 @@
       <c r="H39" s="106"/>
       <c r="I39" s="104"/>
       <c r="J39" s="140" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="69.599999999999994">
@@ -15859,10 +15868,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D40" s="104" t="s">
         <v>79</v>
@@ -15874,32 +15883,32 @@
       <c r="G40" s="104"/>
       <c r="H40" s="106"/>
       <c r="I40" s="104" t="s">
-        <v>696</v>
-      </c>
-      <c r="J40" s="175" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="232" customFormat="1" ht="17.399999999999999">
-      <c r="A41" s="228">
+        <v>688</v>
+      </c>
+      <c r="J40" s="174" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="179" customFormat="1" ht="17.399999999999999">
+      <c r="A41" s="175">
         <v>11</v>
       </c>
-      <c r="B41" s="229" t="s">
-        <v>779</v>
-      </c>
-      <c r="C41" s="229" t="s">
-        <v>690</v>
-      </c>
-      <c r="D41" s="229" t="s">
+      <c r="B41" s="176" t="s">
+        <v>766</v>
+      </c>
+      <c r="C41" s="176" t="s">
+        <v>682</v>
+      </c>
+      <c r="D41" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="228"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="228"/>
-      <c r="I41" s="229"/>
-      <c r="J41" s="231" t="s">
-        <v>728</v>
+      <c r="E41" s="175"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="178" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="34.799999999999997">
@@ -15907,13 +15916,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E42" s="105"/>
       <c r="F42" s="105"/>
@@ -15923,29 +15932,29 @@
       </c>
       <c r="I42" s="102"/>
       <c r="J42" s="138" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="232" customFormat="1" ht="17.399999999999999">
-      <c r="A43" s="233">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="179" customFormat="1" ht="17.399999999999999">
+      <c r="A43" s="180">
         <v>14</v>
       </c>
-      <c r="B43" s="229" t="s">
-        <v>352</v>
-      </c>
-      <c r="C43" s="229" t="s">
-        <v>343</v>
-      </c>
-      <c r="D43" s="229" t="s">
+      <c r="B43" s="176" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="176" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="228"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="228"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="231" t="s">
-        <v>729</v>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="176"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="178" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999">
@@ -15953,13 +15962,13 @@
         <v>15</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" s="105"/>
       <c r="F44" s="105"/>
@@ -15969,29 +15978,29 @@
       </c>
       <c r="I44" s="102"/>
       <c r="J44" s="139" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="232" customFormat="1" ht="17.399999999999999">
-      <c r="A45" s="233">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="179" customFormat="1" ht="17.399999999999999">
+      <c r="A45" s="180">
         <v>16</v>
       </c>
-      <c r="B45" s="229" t="s">
-        <v>781</v>
-      </c>
-      <c r="C45" s="229" t="s">
-        <v>354</v>
-      </c>
-      <c r="D45" s="229" t="s">
+      <c r="B45" s="176" t="s">
+        <v>768</v>
+      </c>
+      <c r="C45" s="176" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="229"/>
-      <c r="H45" s="228"/>
-      <c r="I45" s="229"/>
-      <c r="J45" s="231" t="s">
-        <v>730</v>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="178" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999">
@@ -15999,13 +16008,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="C46" s="102" t="s">
-        <v>356</v>
-      </c>
       <c r="D46" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="105"/>
       <c r="F46" s="105"/>
@@ -16015,7 +16024,7 @@
       </c>
       <c r="I46" s="102"/>
       <c r="J46" s="139" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="69.599999999999994">
@@ -16023,13 +16032,13 @@
         <v>18</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47" s="105"/>
       <c r="F47" s="105"/>
@@ -16039,7 +16048,7 @@
       </c>
       <c r="I47" s="102"/>
       <c r="J47" s="138" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.399999999999999">
@@ -16047,13 +16056,13 @@
         <v>19</v>
       </c>
       <c r="B48" s="102" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="102" t="s">
         <v>338</v>
       </c>
-      <c r="C48" s="102" t="s">
-        <v>339</v>
-      </c>
       <c r="D48" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E48" s="105"/>
       <c r="F48" s="107" t="s">
@@ -16065,7 +16074,7 @@
       </c>
       <c r="I48" s="102"/>
       <c r="J48" s="138" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999">
@@ -16073,13 +16082,13 @@
         <v>20</v>
       </c>
       <c r="B49" s="102" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C49" s="102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" s="105"/>
       <c r="F49" s="107" t="s">
@@ -16091,7 +16100,7 @@
       </c>
       <c r="I49" s="102"/>
       <c r="J49" s="141" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
@@ -16099,13 +16108,13 @@
         <v>21</v>
       </c>
       <c r="B50" s="102" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="D50" s="102" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="E50" s="105"/>
       <c r="F50" s="107" t="s">
@@ -16123,13 +16132,13 @@
         <v>22</v>
       </c>
       <c r="B51" s="102" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D51" s="102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51" s="105"/>
       <c r="F51" s="107" t="s">
@@ -16141,7 +16150,7 @@
       </c>
       <c r="I51" s="102"/>
       <c r="J51" s="141" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
@@ -16149,10 +16158,10 @@
         <v>23</v>
       </c>
       <c r="B52" s="102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C52" s="102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D52" s="42" t="s">
         <v>60</v>
@@ -16163,7 +16172,7 @@
       <c r="H52" s="105"/>
       <c r="I52" s="102"/>
       <c r="J52" s="141" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
@@ -16179,11 +16188,11 @@
       <c r="J53" s="137"/>
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
-      <c r="B54" s="225" t="s">
-        <v>482</v>
-      </c>
-      <c r="C54" s="226"/>
-      <c r="D54" s="227"/>
+      <c r="B54" s="230" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" s="231"/>
+      <c r="D54" s="232"/>
       <c r="E54" s="50"/>
       <c r="F54" s="50"/>
       <c r="G54" s="49"/>
@@ -16192,18 +16201,18 @@
       <c r="J54" s="137"/>
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="222" t="s">
-        <v>496</v>
-      </c>
-      <c r="B56" s="223"/>
-      <c r="C56" s="223"/>
-      <c r="D56" s="223"/>
-      <c r="E56" s="223"/>
-      <c r="F56" s="223"/>
-      <c r="G56" s="223"/>
-      <c r="H56" s="223"/>
-      <c r="I56" s="223"/>
-      <c r="J56" s="224"/>
+      <c r="A56" s="227" t="s">
+        <v>494</v>
+      </c>
+      <c r="B56" s="228"/>
+      <c r="C56" s="228"/>
+      <c r="D56" s="228"/>
+      <c r="E56" s="228"/>
+      <c r="F56" s="228"/>
+      <c r="G56" s="228"/>
+      <c r="H56" s="228"/>
+      <c r="I56" s="228"/>
+      <c r="J56" s="229"/>
     </row>
     <row r="57" spans="1:10" ht="34.799999999999997">
       <c r="A57" s="17" t="s">
@@ -16222,13 +16231,13 @@
         <v>29</v>
       </c>
       <c r="F57" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>32</v>
       </c>
       <c r="H57" s="82" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I57" s="45" t="s">
         <v>34</v>
@@ -16264,7 +16273,7 @@
     <row r="59" spans="1:10" ht="17.399999999999999">
       <c r="A59" s="51"/>
       <c r="B59" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C59" s="38" t="s">
         <v>127</v>
@@ -16279,7 +16288,7 @@
       <c r="G59" s="70"/>
       <c r="H59" s="96"/>
       <c r="I59" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J59" s="134"/>
     </row>
@@ -16288,7 +16297,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" s="44" t="s">
         <v>129</v>
@@ -16303,7 +16312,7 @@
       <c r="G60" s="44"/>
       <c r="H60" s="60"/>
       <c r="I60" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J60" s="136"/>
     </row>
@@ -16312,13 +16321,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E61" s="60"/>
       <c r="F61" s="53" t="s">
@@ -16328,7 +16337,7 @@
       <c r="H61" s="60"/>
       <c r="I61" s="44"/>
       <c r="J61" s="135" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17.399999999999999">
@@ -16336,10 +16345,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D62" s="104" t="s">
         <v>60</v>
@@ -16351,7 +16360,7 @@
       <c r="G62" s="104"/>
       <c r="H62" s="106"/>
       <c r="I62" s="104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J62" s="140"/>
     </row>
@@ -16360,10 +16369,10 @@
         <v>5</v>
       </c>
       <c r="B63" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" s="104" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D63" s="104" t="s">
         <v>60</v>
@@ -16373,10 +16382,10 @@
       <c r="G63" s="104"/>
       <c r="H63" s="106"/>
       <c r="I63" s="104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J63" s="139" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999">
@@ -16384,10 +16393,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D64" s="104" t="s">
         <v>63</v>
@@ -16409,7 +16418,7 @@
         <v>12</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D65" s="104" t="s">
         <v>69</v>
@@ -16422,7 +16431,7 @@
       <c r="H65" s="106"/>
       <c r="I65" s="104"/>
       <c r="J65" s="140" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.399999999999999">
@@ -16430,10 +16439,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>69</v>
@@ -16446,7 +16455,7 @@
       <c r="H66" s="60"/>
       <c r="I66" s="44"/>
       <c r="J66" s="136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17.399999999999999">
@@ -16454,10 +16463,10 @@
         <v>9</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D67" s="44" t="s">
         <v>63</v>
@@ -16476,10 +16485,10 @@
         <v>10</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D68" s="104" t="s">
         <v>62</v>
@@ -16491,7 +16500,7 @@
       <c r="G68" s="104"/>
       <c r="H68" s="106"/>
       <c r="I68" s="104" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="J68" s="136"/>
     </row>
@@ -16500,13 +16509,13 @@
         <v>11</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E69" s="60"/>
       <c r="F69" s="53" t="s">
@@ -16524,13 +16533,13 @@
         <v>12</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E70" s="60"/>
       <c r="F70" s="53" t="s">
@@ -16548,13 +16557,13 @@
         <v>13</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E71" s="60"/>
       <c r="F71" s="53" t="s">
@@ -16572,10 +16581,10 @@
         <v>14</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D72" s="44" t="s">
         <v>103</v>
@@ -16586,7 +16595,7 @@
       <c r="H72" s="60"/>
       <c r="I72" s="44"/>
       <c r="J72" s="62" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.399999999999999">
@@ -16602,11 +16611,11 @@
       <c r="J73" s="137"/>
     </row>
     <row r="74" spans="1:10" ht="17.399999999999999">
-      <c r="B74" s="225" t="s">
-        <v>483</v>
-      </c>
-      <c r="C74" s="226"/>
-      <c r="D74" s="227"/>
+      <c r="B74" s="230" t="s">
+        <v>482</v>
+      </c>
+      <c r="C74" s="231"/>
+      <c r="D74" s="232"/>
       <c r="E74" s="50"/>
       <c r="F74" s="50"/>
       <c r="G74" s="50"/>
@@ -16615,49 +16624,49 @@
       <c r="J74" s="137"/>
     </row>
     <row r="76" spans="1:10" ht="17.399999999999999">
-      <c r="A76" s="222" t="s">
-        <v>497</v>
-      </c>
-      <c r="B76" s="223"/>
-      <c r="C76" s="223"/>
-      <c r="D76" s="223"/>
-      <c r="E76" s="223"/>
-      <c r="F76" s="223"/>
-      <c r="G76" s="223"/>
-      <c r="H76" s="223"/>
-      <c r="I76" s="223"/>
-      <c r="J76" s="224"/>
+      <c r="A76" s="227" t="s">
+        <v>495</v>
+      </c>
+      <c r="B76" s="228"/>
+      <c r="C76" s="228"/>
+      <c r="D76" s="228"/>
+      <c r="E76" s="228"/>
+      <c r="F76" s="228"/>
+      <c r="G76" s="228"/>
+      <c r="H76" s="228"/>
+      <c r="I76" s="228"/>
+      <c r="J76" s="229"/>
     </row>
     <row r="77" spans="1:10" ht="34.799999999999997">
       <c r="A77" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E77" s="82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F77" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G77" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H77" s="82" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I77" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J77" s="133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.399999999999999">
@@ -16665,13 +16674,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E78" s="32" t="s">
         <v>161</v>
@@ -16689,7 +16698,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>127</v>
@@ -16704,7 +16713,7 @@
       <c r="G79" s="70"/>
       <c r="H79" s="96"/>
       <c r="I79" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J79" s="134"/>
     </row>
@@ -16713,10 +16722,10 @@
         <v>3</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>76</v>
@@ -16728,7 +16737,7 @@
       <c r="G80" s="70"/>
       <c r="H80" s="96"/>
       <c r="I80" s="42" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J80" s="134"/>
     </row>
@@ -16737,13 +16746,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C81" s="102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D81" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E81" s="106"/>
       <c r="F81" s="108" t="s">
@@ -16753,7 +16762,7 @@
       <c r="H81" s="106"/>
       <c r="I81" s="104"/>
       <c r="J81" s="138" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17.399999999999999">
@@ -16776,7 +16785,7 @@
       <c r="G82" s="104"/>
       <c r="H82" s="106"/>
       <c r="I82" s="104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J82" s="140"/>
     </row>
@@ -16785,10 +16794,10 @@
         <v>6</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C83" s="104" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D83" s="104" t="s">
         <v>60</v>
@@ -16798,10 +16807,10 @@
       <c r="G83" s="104"/>
       <c r="H83" s="106"/>
       <c r="I83" s="104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J83" s="139" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.399999999999999">
@@ -16809,10 +16818,10 @@
         <v>7</v>
       </c>
       <c r="B84" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C84" s="104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="104" t="s">
         <v>63</v>
@@ -16834,7 +16843,7 @@
         <v>12</v>
       </c>
       <c r="C85" s="104" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D85" s="104" t="s">
         <v>69</v>
@@ -16847,7 +16856,7 @@
       <c r="H85" s="106"/>
       <c r="I85" s="104"/>
       <c r="J85" s="140" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.399999999999999">
@@ -16855,10 +16864,10 @@
         <v>9</v>
       </c>
       <c r="B86" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C86" s="102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D86" s="102" t="s">
         <v>162</v>
@@ -16870,10 +16879,10 @@
       <c r="G86" s="102"/>
       <c r="H86" s="105"/>
       <c r="I86" s="102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J86" s="139" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.399999999999999">
@@ -16881,10 +16890,10 @@
         <v>10</v>
       </c>
       <c r="B87" s="102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="102" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D87" s="102" t="s">
         <v>162</v>
@@ -16896,10 +16905,10 @@
       <c r="G87" s="102"/>
       <c r="H87" s="105"/>
       <c r="I87" s="102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J87" s="139" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.399999999999999">
@@ -16907,13 +16916,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" s="56"/>
       <c r="F88" s="32" t="s">
@@ -16937,11 +16946,11 @@
       <c r="J89" s="137"/>
     </row>
     <row r="90" spans="1:10" ht="17.399999999999999">
-      <c r="B90" s="225" t="s">
-        <v>598</v>
-      </c>
-      <c r="C90" s="226"/>
-      <c r="D90" s="227"/>
+      <c r="B90" s="230" t="s">
+        <v>594</v>
+      </c>
+      <c r="C90" s="231"/>
+      <c r="D90" s="232"/>
       <c r="E90" s="50"/>
       <c r="F90" s="50"/>
       <c r="G90" s="49"/>
@@ -16996,18 +17005,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="176" t="s">
-        <v>737</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178"/>
+      <c r="A2" s="181" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -17026,13 +17035,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>34</v>
@@ -17046,10 +17055,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>62</v>
@@ -17063,19 +17072,19 @@
       <c r="G4" s="38"/>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="182" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="146" customFormat="1" ht="17.399999999999999">
-      <c r="A5" s="145">
+      <c r="J4" s="187" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="145" customFormat="1" ht="17.399999999999999">
+      <c r="A5" s="144">
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>70</v>
@@ -17087,7 +17096,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="105"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="183"/>
+      <c r="J5" s="188"/>
     </row>
     <row r="6" spans="1:10" s="31" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="51">
@@ -17107,7 +17116,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H6" s="92">
         <v>1</v>
@@ -17119,7 +17128,7 @@
       <c r="A7" s="51">
         <v>5</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="171" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -17141,11 +17150,11 @@
       <c r="A8" s="51">
         <v>6</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="171" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>63</v>
@@ -17158,18 +17167,18 @@
       <c r="H8" s="56"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="51">
         <v>7</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="171" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>60</v>
@@ -17185,11 +17194,11 @@
       <c r="A10" s="51">
         <v>8</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="171" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>63</v>
@@ -17200,15 +17209,15 @@
       <c r="H10" s="56"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="179" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="181"/>
+      <c r="B12" s="184" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="185"/>
+      <c r="D12" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17251,18 +17260,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="176" t="s">
-        <v>691</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178"/>
+      <c r="A2" s="181" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -17281,13 +17290,13 @@
         <v>155</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>154</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>153</v>
@@ -17296,7 +17305,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="51">
         <v>2</v>
       </c>
@@ -17304,33 +17313,33 @@
         <v>12</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="182" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="146" customFormat="1" ht="17.399999999999999">
-      <c r="A5" s="145">
+      <c r="J4" s="187" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="145" customFormat="1" ht="17.399999999999999">
+      <c r="A5" s="144">
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>70</v>
@@ -17342,7 +17351,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="105"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="183"/>
+      <c r="J5" s="188"/>
     </row>
     <row r="6" spans="1:10" s="31" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="51">
@@ -17362,7 +17371,7 @@
         <v>133</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H6" s="92">
         <v>1</v>
@@ -17374,7 +17383,7 @@
       <c r="A7" s="51">
         <v>5</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="146" t="s">
         <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -17396,11 +17405,11 @@
       <c r="A8" s="51">
         <v>6</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="146" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>75</v>
@@ -17413,18 +17422,18 @@
       <c r="H8" s="56"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
       <c r="A9" s="51">
         <v>7</v>
       </c>
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="146" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>68</v>
@@ -17440,11 +17449,11 @@
       <c r="A10" s="51">
         <v>8</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="146" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>75</v>
@@ -17455,15 +17464,15 @@
       <c r="H10" s="56"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="179" t="s">
-        <v>694</v>
-      </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="181"/>
+      <c r="B12" s="184" t="s">
+        <v>686</v>
+      </c>
+      <c r="C12" s="185"/>
+      <c r="D12" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17507,18 +17516,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="185" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="187"/>
+      <c r="A2" s="190" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="192"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -17537,13 +17546,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -17584,7 +17593,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>79</v>
@@ -17597,7 +17606,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.799999999999997">
@@ -17608,7 +17617,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>80</v>
@@ -17621,7 +17630,7 @@
       <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17632,10 +17641,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
@@ -17643,7 +17652,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -17651,13 +17660,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -17665,7 +17674,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17673,13 +17682,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="98" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="32" t="s">
@@ -17691,7 +17700,7 @@
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -17699,13 +17708,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="98" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>508</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="32" t="s">
@@ -17717,7 +17726,7 @@
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="42" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
@@ -17738,7 +17747,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H11" s="92">
         <v>1</v>
@@ -17767,7 +17776,7 @@
       <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -17778,7 +17787,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>77</v>
@@ -17791,7 +17800,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17802,7 +17811,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>76</v>
@@ -17813,7 +17822,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17824,7 +17833,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>77</v>
@@ -17835,16 +17844,16 @@
       <c r="H15" s="56"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="48"/>
-      <c r="B17" s="184" t="s">
-        <v>456</v>
-      </c>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
+      <c r="B17" s="189" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="48"/>
@@ -17855,11 +17864,11 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="48"/>
-      <c r="B18" s="184" t="s">
-        <v>457</v>
-      </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
+      <c r="B18" s="189" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
       <c r="G18" s="48"/>
@@ -17912,18 +17921,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>377</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="115" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -17942,13 +17951,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -17986,7 +17995,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>127</v>
@@ -18001,7 +18010,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="20"/>
       <c r="I5" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -18010,15 +18019,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="144"/>
+      <c r="E6" s="143"/>
       <c r="F6" s="32" t="s">
         <v>30</v>
       </c>
@@ -18026,7 +18035,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="6"/>
       <c r="J6" s="42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18034,7 +18043,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>106</v>
@@ -18070,7 +18079,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="6"/>
       <c r="J8" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997">
@@ -18078,10 +18087,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>64</v>
@@ -18091,7 +18100,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H9" s="92">
         <v>1</v>
@@ -18104,13 +18113,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D10" s="162" t="s">
-        <v>682</v>
+        <v>380</v>
+      </c>
+      <c r="D10" s="161" t="s">
+        <v>674</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="32"/>
@@ -18118,14 +18127,14 @@
       <c r="H10" s="20"/>
       <c r="I10" s="6"/>
       <c r="J10" s="102" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
       <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="143" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -18139,19 +18148,19 @@
         <v>30</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H11" s="92">
         <v>1</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="163"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="143" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -18168,18 +18177,18 @@
       <c r="H12" s="20"/>
       <c r="I12" s="42"/>
       <c r="J12" s="102" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="20">
         <v>10</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="143" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>63</v>
@@ -18192,18 +18201,18 @@
       <c r="H13" s="20"/>
       <c r="I13" s="6"/>
       <c r="J13" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="49" customFormat="1">
       <c r="A14" s="56">
         <v>11</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="143" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>60</v>
@@ -18213,7 +18222,7 @@
       <c r="G14" s="42"/>
       <c r="H14" s="56"/>
       <c r="I14" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="42"/>
     </row>
@@ -18221,11 +18230,11 @@
       <c r="A15" s="56">
         <v>12</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="143" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>63</v>
@@ -18236,61 +18245,61 @@
       <c r="H15" s="56"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="25"/>
-      <c r="B17" s="184" t="s">
-        <v>458</v>
-      </c>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
+      <c r="B17" s="189" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="25"/>
-      <c r="B18" s="191" t="s">
-        <v>557</v>
-      </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="191"/>
+      <c r="B18" s="196" t="s">
+        <v>553</v>
+      </c>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="25"/>
-      <c r="B19" s="192" t="s">
-        <v>743</v>
-      </c>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
+      <c r="B19" s="197" t="s">
+        <v>731</v>
+      </c>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="188" t="s">
-        <v>718</v>
-      </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="190"/>
+      <c r="A21" s="193" t="s">
+        <v>707</v>
+      </c>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="195"/>
     </row>
     <row r="22" spans="1:10" ht="34.799999999999997">
       <c r="A22" s="19" t="s">
@@ -18309,13 +18318,13 @@
         <v>29</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>34</v>
@@ -18353,7 +18362,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>127</v>
@@ -18368,7 +18377,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="20"/>
       <c r="I24" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J24" s="6"/>
     </row>
@@ -18377,22 +18386,22 @@
         <v>3</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="172"/>
+      <c r="E25" s="171"/>
       <c r="F25" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="20"/>
       <c r="I25" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J25" s="42"/>
     </row>
@@ -18401,10 +18410,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>60</v>
@@ -18416,7 +18425,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="20"/>
       <c r="I26" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J26" s="6"/>
     </row>
@@ -18424,7 +18433,7 @@
       <c r="A27" s="20">
         <v>8</v>
       </c>
-      <c r="B27" s="172" t="s">
+      <c r="B27" s="171" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -18438,21 +18447,21 @@
         <v>30</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H27" s="92">
         <v>1</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="163"/>
+      <c r="J27" s="162"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="25"/>
-      <c r="B29" s="184" t="s">
-        <v>720</v>
-      </c>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
+      <c r="B29" s="189" t="s">
+        <v>709</v>
+      </c>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18501,18 +18510,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -18537,7 +18546,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -18575,7 +18584,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>127</v>
@@ -18590,7 +18599,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="20"/>
       <c r="I5" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -18599,13 +18608,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
@@ -18615,7 +18624,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.799999999999997">
@@ -18639,115 +18648,115 @@
       <c r="H7" s="20"/>
       <c r="I7" s="2"/>
       <c r="J7" s="42" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
       <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="162" t="s">
-        <v>678</v>
-      </c>
-      <c r="C8" s="162" t="s">
-        <v>558</v>
-      </c>
-      <c r="D8" s="162" t="s">
-        <v>563</v>
-      </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="165" t="s">
-        <v>564</v>
-      </c>
-      <c r="H8" s="161">
+      <c r="B8" s="161" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" s="161" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="161" t="s">
+        <v>559</v>
+      </c>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="H8" s="160">
         <v>0</v>
       </c>
-      <c r="I8" s="166"/>
+      <c r="I8" s="165"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997">
       <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="162" t="s">
-        <v>679</v>
-      </c>
-      <c r="C9" s="162" t="s">
-        <v>677</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="165" t="s">
-        <v>564</v>
-      </c>
-      <c r="H9" s="161">
+      <c r="B9" s="161" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>669</v>
+      </c>
+      <c r="D9" s="161" t="s">
+        <v>672</v>
+      </c>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="H9" s="160">
         <v>0</v>
       </c>
-      <c r="I9" s="166"/>
+      <c r="I9" s="165"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" ht="34.799999999999997">
       <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="161" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" s="161" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="161" t="s">
         <v>559</v>
       </c>
-      <c r="C10" s="162" t="s">
-        <v>561</v>
-      </c>
-      <c r="D10" s="162" t="s">
-        <v>563</v>
-      </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="165" t="s">
-        <v>564</v>
-      </c>
-      <c r="H10" s="161">
+      <c r="E10" s="162"/>
+      <c r="F10" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="H10" s="160">
         <v>0</v>
       </c>
-      <c r="I10" s="166"/>
+      <c r="I10" s="165"/>
       <c r="J10" s="103" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
       <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="161" t="s">
+        <v>556</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="161" t="s">
+        <v>559</v>
+      </c>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="C11" s="162" t="s">
-        <v>562</v>
-      </c>
-      <c r="D11" s="162" t="s">
-        <v>563</v>
-      </c>
-      <c r="E11" s="163"/>
-      <c r="F11" s="164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="165" t="s">
-        <v>564</v>
-      </c>
-      <c r="H11" s="161">
+      <c r="H11" s="160">
         <v>0</v>
       </c>
-      <c r="I11" s="166"/>
+      <c r="I11" s="165"/>
       <c r="J11" s="103" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34.799999999999997">
@@ -18768,7 +18777,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H12" s="94">
         <v>1</v>
@@ -18796,7 +18805,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="20"/>
       <c r="I13" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J13" s="14"/>
     </row>
@@ -18808,7 +18817,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
@@ -18821,7 +18830,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="2"/>
       <c r="J14" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18832,7 +18841,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>60</v>
@@ -18842,7 +18851,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="20"/>
       <c r="I15" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J15" s="14"/>
     </row>
@@ -18854,7 +18863,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>63</v>
@@ -18865,24 +18874,24 @@
       <c r="H16" s="20"/>
       <c r="I16" s="2"/>
       <c r="J16" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="25"/>
-      <c r="B18" s="195" t="s">
-        <v>465</v>
-      </c>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="B18" s="200" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="25"/>
-      <c r="B19" s="195" t="s">
-        <v>468</v>
-      </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="B19" s="200" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="201"/>
+      <c r="D19" s="202"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="21"/>
@@ -18931,18 +18940,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>393</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -18967,7 +18976,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -19005,7 +19014,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>127</v>
@@ -19020,7 +19029,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="20"/>
       <c r="I5" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -19029,10 +19038,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>60</v>
@@ -19044,7 +19053,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="20"/>
       <c r="I6" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -19092,7 +19101,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="20"/>
       <c r="I8" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -19104,7 +19113,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>63</v>
@@ -19117,16 +19126,16 @@
       <c r="H9" s="20"/>
       <c r="I9" s="2"/>
       <c r="J9" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="25"/>
-      <c r="B11" s="198" t="s">
-        <v>463</v>
-      </c>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
+      <c r="B11" s="203" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="25"/>
@@ -19177,18 +19186,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="188" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="A2" s="193" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -19213,7 +19222,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -19251,7 +19260,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -19266,7 +19275,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="96"/>
       <c r="I5" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J5" s="70"/>
     </row>
@@ -19291,7 +19300,7 @@
       <c r="H6" s="96"/>
       <c r="I6" s="42"/>
       <c r="J6" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -19315,7 +19324,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="42"/>
       <c r="J7" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -19323,13 +19332,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="D8" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="71"/>
@@ -19346,10 +19355,10 @@
         <v>58</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="70"/>
@@ -19357,7 +19366,7 @@
       <c r="H9" s="96"/>
       <c r="I9" s="42"/>
       <c r="J9" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
@@ -19365,13 +19374,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="70"/>
@@ -19379,7 +19388,7 @@
       <c r="H10" s="96"/>
       <c r="I10" s="42"/>
       <c r="J10" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
@@ -19393,14 +19402,14 @@
         <v>71</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H11" s="92">
         <v>1</v>
@@ -19428,7 +19437,7 @@
       <c r="G12" s="71"/>
       <c r="H12" s="96"/>
       <c r="I12" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J12" s="38"/>
     </row>
@@ -19440,7 +19449,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>63</v>
@@ -19453,7 +19462,7 @@
       <c r="H13" s="96"/>
       <c r="I13" s="42"/>
       <c r="J13" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
@@ -19464,7 +19473,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>68</v>
@@ -19474,7 +19483,7 @@
       <c r="G14" s="71"/>
       <c r="H14" s="96"/>
       <c r="I14" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J14" s="42"/>
     </row>
@@ -19486,7 +19495,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>63</v>
@@ -19497,22 +19506,22 @@
       <c r="H15" s="96"/>
       <c r="I15" s="42"/>
       <c r="J15" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="17.399999999999999">
-      <c r="B17" s="199" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="200"/>
-      <c r="D17" s="201"/>
+      <c r="B17" s="204" t="s">
+        <v>513</v>
+      </c>
+      <c r="C17" s="205"/>
+      <c r="D17" s="206"/>
     </row>
     <row r="18" spans="2:4" ht="17.399999999999999">
-      <c r="B18" s="199" t="s">
-        <v>468</v>
-      </c>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
+      <c r="B18" s="204" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/naierPOS DB Schema(160620).xlsx
+++ b/doc/naierPOS DB Schema(160620).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="456" windowWidth="28716" windowHeight="17544" tabRatio="781" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="84" yWindow="456" windowWidth="28716" windowHeight="17544" tabRatio="781" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Lists" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="789">
   <si>
     <t>回首页</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -2720,10 +2720,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>零售价格清单(RetailPrice)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal(20,2)</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -4152,10 +4148,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>MaxCode</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Terminal</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -4556,10 +4548,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Flag</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>支付方式(Payment)</t>
     <rPh sb="0" eb="1">
       <t>zhi fu</t>
@@ -6425,6 +6413,14 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>SaleRoundDown</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>PriceDecimal</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -6441,7 +6437,27 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>SaleRoundDown</t>
+    <t>Store</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesDate</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCode</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价格清单(RetailPrice)</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -7318,6 +7334,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7473,15 +7498,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7795,8 +7811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
@@ -7810,7 +7826,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1">
       <c r="A1" s="111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B1" s="110" t="s">
         <v>10</v>
@@ -7819,54 +7835,54 @@
         <v>9</v>
       </c>
       <c r="D1" s="110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C2" s="172" t="s">
         <v>312</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C3" s="172" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4" s="102" t="s">
         <v>215</v>
       </c>
       <c r="C4" s="172" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5" s="112" t="s">
         <v>121</v>
@@ -7875,26 +7891,26 @@
         <v>127</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="83" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" s="173" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C6" s="114" t="s">
         <v>389</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="85" customFormat="1">
       <c r="A7" s="104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7" s="102" t="s">
         <v>119</v>
@@ -7906,7 +7922,7 @@
     </row>
     <row r="8" spans="1:4" s="85" customFormat="1">
       <c r="A8" s="104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B8" s="102" t="s">
         <v>394</v>
@@ -7918,7 +7934,7 @@
     </row>
     <row r="9" spans="1:4" s="37" customFormat="1">
       <c r="A9" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>123</v>
@@ -7930,7 +7946,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B10" s="102" t="s">
         <v>207</v>
@@ -7942,10 +7958,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C11" s="113" t="s">
         <v>53</v>
@@ -7954,7 +7970,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>105</v>
@@ -7966,7 +7982,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>113</v>
@@ -7978,7 +7994,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>112</v>
@@ -7990,34 +8006,34 @@
     </row>
     <row r="15" spans="1:4" s="79" customFormat="1">
       <c r="A15" s="102" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="102"/>
     </row>
     <row r="16" spans="1:4" s="79" customFormat="1">
       <c r="A16" s="102" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:4" ht="34.799999999999997">
       <c r="A17" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C17" s="113" t="s">
         <v>8</v>
@@ -8026,62 +8042,62 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C18" s="172" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="102" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C19" s="170" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D19" s="125" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" s="79" customFormat="1">
       <c r="A21" s="102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B21" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" s="114" t="s">
         <v>436</v>
-      </c>
-      <c r="C21" s="114" t="s">
-        <v>437</v>
       </c>
       <c r="D21" s="102"/>
     </row>
     <row r="22" spans="1:4" ht="139.19999999999999">
       <c r="A22" s="102" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C22" s="114" t="s">
         <v>130</v>
@@ -8090,10 +8106,10 @@
     </row>
     <row r="23" spans="1:4" ht="69.599999999999994">
       <c r="A23" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C23" s="114" t="s">
         <v>129</v>
@@ -8163,18 +8179,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="49" customFormat="1" ht="34.049999999999997" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -8199,7 +8215,7 @@
         <v>154</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>153</v>
@@ -8301,7 +8317,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="29"/>
       <c r="J7" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -8322,7 +8338,7 @@
         <v>136</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -8423,18 +8439,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="207" t="s">
-        <v>464</v>
-      </c>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
+      <c r="B14" s="210" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="207" t="s">
-        <v>467</v>
-      </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
+      <c r="B15" s="210" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8478,18 +8494,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="A2" s="196" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="115" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -8514,7 +8530,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -8592,7 +8608,7 @@
       <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -8618,7 +8634,7 @@
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -8639,7 +8655,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H8" s="56">
         <v>1</v>
@@ -8740,11 +8756,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="207" t="s">
-        <v>469</v>
-      </c>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
+      <c r="B14" s="210" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8785,18 +8801,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -8815,13 +8831,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -8898,7 +8914,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J6" s="38"/>
     </row>
@@ -8923,7 +8939,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -8946,7 +8962,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J8" s="38"/>
     </row>
@@ -8971,7 +8987,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
@@ -9096,11 +9112,11 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="77"/>
-      <c r="B16" s="207" t="s">
-        <v>470</v>
-      </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
+      <c r="B16" s="210" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="77"/>
       <c r="F16" s="99"/>
       <c r="G16" s="75"/>
@@ -9360,18 +9376,18 @@
       <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="A2" s="196" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -9390,13 +9406,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -9474,7 +9490,7 @@
       <c r="H6" s="96"/>
       <c r="I6" s="70"/>
       <c r="J6" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -9498,7 +9514,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="70"/>
       <c r="J7" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -9519,7 +9535,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -9621,18 +9637,18 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="8"/>
-      <c r="B14" s="207" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
+      <c r="B14" s="210" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="207" t="s">
-        <v>514</v>
-      </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
+      <c r="B15" s="210" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9684,18 +9700,18 @@
       <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -9714,13 +9730,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -9822,7 +9838,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="70"/>
       <c r="J7" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -9846,7 +9862,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="42"/>
       <c r="J8" s="47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997">
@@ -9867,7 +9883,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H9" s="92">
         <v>1</v>
@@ -9969,19 +9985,19 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="8"/>
-      <c r="B15" s="207" t="s">
-        <v>464</v>
-      </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
+      <c r="B15" s="210" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
       <c r="A16" s="9"/>
-      <c r="B16" s="207" t="s">
-        <v>515</v>
-      </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
+      <c r="B16" s="210" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10023,18 +10039,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
-        <v>521</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="A2" s="196" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -10053,13 +10069,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -10124,7 +10140,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>86</v>
@@ -10137,7 +10153,7 @@
       <c r="H6" s="68"/>
       <c r="I6" s="29"/>
       <c r="J6" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -10148,7 +10164,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>87</v>
@@ -10161,7 +10177,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="29"/>
       <c r="J7" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -10182,7 +10198,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -10283,18 +10299,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="207" t="s">
-        <v>519</v>
-      </c>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
+      <c r="B14" s="210" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="207" t="s">
-        <v>467</v>
-      </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
+      <c r="B15" s="210" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10336,18 +10352,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="193" t="s">
-        <v>520</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="A2" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -10366,13 +10382,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -10434,10 +10450,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>578</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>579</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>62</v>
@@ -10450,7 +10466,7 @@
       <c r="H6" s="157"/>
       <c r="I6" s="102"/>
       <c r="J6" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -10461,10 +10477,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="32" t="s">
@@ -10474,7 +10490,7 @@
       <c r="H7" s="68"/>
       <c r="I7" s="29"/>
       <c r="J7" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -10495,7 +10511,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H8" s="92">
         <v>1</v>
@@ -10596,18 +10612,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="B14" s="208" t="s">
-        <v>464</v>
-      </c>
-      <c r="C14" s="209"/>
-      <c r="D14" s="210"/>
+      <c r="B14" s="211" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="204" t="s">
-        <v>457</v>
-      </c>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="B15" s="207" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10627,8 +10643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -10652,18 +10668,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="115" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -10682,13 +10698,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -10790,7 +10806,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -10814,7 +10830,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
@@ -10881,7 +10897,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="56"/>
       <c r="I11" s="42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -10905,7 +10921,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="56"/>
       <c r="I12" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J12" s="42"/>
     </row>
@@ -10914,7 +10930,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C13" s="102" t="s">
         <v>303</v>
@@ -10936,13 +10952,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C14" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" s="102" t="s">
         <v>571</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>572</v>
       </c>
       <c r="E14" s="166"/>
       <c r="F14" s="107" t="s">
@@ -10960,13 +10976,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C15" s="102" t="s">
+        <v>709</v>
+      </c>
+      <c r="D15" s="102" t="s">
         <v>712</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>715</v>
       </c>
       <c r="E15" s="166"/>
       <c r="F15" s="107"/>
@@ -10980,27 +10996,27 @@
         <v>13</v>
       </c>
       <c r="B16" s="102" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="102" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="102" t="s">
-        <v>444</v>
-      </c>
       <c r="D16" s="102" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E16" s="166"/>
       <c r="F16" s="107" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="103" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H16" s="167">
         <v>0</v>
       </c>
       <c r="I16" s="102"/>
       <c r="J16" s="102" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34.799999999999997">
@@ -11021,7 +11037,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -11132,7 +11148,7 @@
         <v>283</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E22" s="118"/>
       <c r="F22" s="67"/>
@@ -11140,30 +11156,30 @@
       <c r="H22" s="56"/>
       <c r="I22" s="42"/>
       <c r="J22" s="102" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K22" s="64"/>
     </row>
     <row r="24" spans="1:11" ht="17.399999999999999">
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="199" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.399999999999999">
+      <c r="B25" s="199" t="s">
         <v>473</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.399999999999999">
-      <c r="B25" s="196" t="s">
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.399999999999999">
+      <c r="B26" s="199" t="s">
         <v>474</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.399999999999999">
-      <c r="B26" s="196" t="s">
-        <v>475</v>
-      </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="196"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
     </row>
     <row r="27" spans="1:11" ht="17.399999999999999">
       <c r="A27" s="8"/>
@@ -11182,18 +11198,18 @@
       <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1">
-      <c r="A29" s="193" t="s">
-        <v>438</v>
-      </c>
-      <c r="B29" s="194"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195"/>
+      <c r="A29" s="196" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="197"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
     </row>
     <row r="30" spans="1:11" ht="34.799999999999997">
       <c r="A30" s="19" t="s">
@@ -11212,13 +11228,13 @@
         <v>29</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>34</v>
@@ -11304,10 +11320,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>60</v>
@@ -11319,7 +11335,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="56"/>
       <c r="I34" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J34" s="42"/>
     </row>
@@ -11328,10 +11344,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>60</v>
@@ -11343,7 +11359,7 @@
       <c r="G35" s="42"/>
       <c r="H35" s="56"/>
       <c r="I35" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J35" s="42"/>
     </row>
@@ -11352,13 +11368,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E36" s="166"/>
       <c r="F36" s="107"/>
@@ -11385,7 +11401,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H37" s="56">
         <v>1</v>
@@ -11407,11 +11423,11 @@
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
       <c r="A39" s="49"/>
-      <c r="B39" s="189" t="s">
-        <v>472</v>
-      </c>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189"/>
+      <c r="B39" s="192" t="s">
+        <v>471</v>
+      </c>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="49"/>
@@ -11453,7 +11469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
@@ -11476,18 +11494,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
-        <v>586</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="A2" s="196" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -11506,13 +11524,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -11574,7 +11592,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>587</v>
+        <v>778</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>430</v>
@@ -11589,7 +11607,7 @@
       <c r="G6" s="70"/>
       <c r="H6" s="96"/>
       <c r="I6" s="42" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J6" s="70"/>
     </row>
@@ -11601,7 +11619,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>62</v>
@@ -11614,7 +11632,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="42"/>
       <c r="J7" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -11625,7 +11643,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>70</v>
@@ -11638,7 +11656,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="42"/>
       <c r="J8" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997">
@@ -11659,7 +11677,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H9" s="92">
         <v>1</v>
@@ -11760,18 +11778,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="B15" s="204" t="s">
-        <v>591</v>
-      </c>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
+      <c r="B15" s="207" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
-      <c r="B16" s="211" t="s">
-        <v>592</v>
-      </c>
-      <c r="C16" s="212"/>
-      <c r="D16" s="213"/>
+      <c r="B16" s="214" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="215"/>
+      <c r="D16" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11792,8 +11810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11817,18 +11835,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="181" t="s">
-        <v>696</v>
-      </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183"/>
+      <c r="A2" s="184" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -11847,13 +11865,13 @@
         <v>155</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>154</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>153</v>
@@ -11891,7 +11909,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="127" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>127</v>
@@ -11906,7 +11924,7 @@
       <c r="G5" s="127"/>
       <c r="H5" s="130"/>
       <c r="I5" s="127" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J5" s="127"/>
     </row>
@@ -11915,13 +11933,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
@@ -11933,7 +11951,7 @@
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -11941,13 +11959,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="32" t="s">
@@ -11959,7 +11977,7 @@
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="38" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -11967,13 +11985,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="107" t="s">
@@ -11985,7 +12003,7 @@
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="38" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="17.399999999999999">
@@ -11993,13 +12011,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>698</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>701</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="107" t="s">
@@ -12011,7 +12029,7 @@
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="38" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="17.399999999999999">
@@ -12019,13 +12037,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="107" t="s">
@@ -12037,28 +12055,28 @@
       </c>
       <c r="I10" s="47"/>
       <c r="J10" s="38" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="214" t="s">
-        <v>739</v>
-      </c>
-      <c r="C12" s="215"/>
-      <c r="D12" s="216"/>
+      <c r="B12" s="217" t="s">
+        <v>736</v>
+      </c>
+      <c r="C12" s="218"/>
+      <c r="D12" s="219"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="B13" s="217" t="s">
-        <v>740</v>
-      </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="217"/>
+      <c r="B13" s="220" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12078,7 +12096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -12100,18 +12120,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="181" t="s">
-        <v>607</v>
-      </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183"/>
+      <c r="A2" s="184" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -12130,13 +12150,13 @@
         <v>195</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>193</v>
@@ -12153,22 +12173,22 @@
         <v>16</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="187" t="s">
-        <v>608</v>
+      <c r="J4" s="190" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="145" customFormat="1" ht="17.399999999999999">
@@ -12191,7 +12211,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="105"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="188"/>
+      <c r="J5" s="191"/>
     </row>
     <row r="6" spans="1:10" s="31" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="51">
@@ -12211,7 +12231,7 @@
         <v>161</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H6" s="92">
         <v>1</v>
@@ -12308,11 +12328,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="184" t="s">
-        <v>678</v>
-      </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="186"/>
+      <c r="B12" s="187" t="s">
+        <v>675</v>
+      </c>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12332,8 +12352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12363,18 +12383,18 @@
       <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="218" t="s">
-        <v>741</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="A2" s="221" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="223"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="106" t="s">
@@ -12393,13 +12413,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="148" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="148" t="s">
         <v>154</v>
       </c>
       <c r="H3" s="148" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I3" s="148" t="s">
         <v>153</v>
@@ -12461,7 +12481,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>123</v>
+        <v>783</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>430</v>
@@ -12485,10 +12505,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>583</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>585</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>60</v>
@@ -12501,7 +12521,7 @@
         <v>322</v>
       </c>
       <c r="J7" s="139" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -12509,10 +12529,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>211</v>
+        <v>784</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>268</v>
@@ -12531,10 +12551,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>582</v>
+        <v>785</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>69</v>
@@ -12553,23 +12573,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>606</v>
+        <v>786</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="105"/>
       <c r="F10" s="107"/>
       <c r="G10" s="103" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H10" s="105">
         <v>0</v>
       </c>
       <c r="I10" s="102"/>
       <c r="J10" s="139" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999">
@@ -12586,11 +12606,11 @@
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
       <c r="A12" s="155"/>
-      <c r="B12" s="221" t="s">
-        <v>593</v>
-      </c>
-      <c r="C12" s="222"/>
-      <c r="D12" s="223"/>
+      <c r="B12" s="224" t="s">
+        <v>591</v>
+      </c>
+      <c r="C12" s="225"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="153"/>
       <c r="F12" s="153"/>
       <c r="G12" s="152"/>
@@ -12599,17 +12619,17 @@
       <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="B13" s="196" t="s">
-        <v>616</v>
-      </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
+      <c r="B13" s="199" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12630,7 +12650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -12653,18 +12675,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="181" t="s">
-        <v>575</v>
-      </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183"/>
+      <c r="A2" s="184" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -12683,13 +12705,13 @@
         <v>195</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>193</v>
@@ -12727,7 +12749,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>127</v>
@@ -12751,13 +12773,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>228</v>
+        <v>787</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="107" t="s">
@@ -12766,7 +12788,7 @@
       <c r="G6" s="47"/>
       <c r="H6" s="105"/>
       <c r="I6" s="47" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J6" s="128"/>
     </row>
@@ -12788,7 +12810,7 @@
         <v>161</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H7" s="92">
         <v>1</v>
@@ -12889,11 +12911,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="B13" s="184" t="s">
-        <v>566</v>
-      </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186"/>
+      <c r="B13" s="187" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12912,7 +12934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -12934,18 +12958,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="224" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="A2" s="227" t="s">
+        <v>788</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="229"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="17" t="s">
@@ -12964,13 +12988,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>34</v>
@@ -13095,7 +13119,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J8" s="40"/>
     </row>
@@ -13110,7 +13134,7 @@
         <v>177</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="169"/>
       <c r="F9" s="107" t="s">
@@ -13120,7 +13144,7 @@
       <c r="H9" s="168"/>
       <c r="I9" s="168"/>
       <c r="J9" s="168" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
@@ -13131,7 +13155,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="168" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>268</v>
@@ -13153,10 +13177,10 @@
         <v>73</v>
       </c>
       <c r="C11" s="168" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>567</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>568</v>
       </c>
       <c r="E11" s="169"/>
       <c r="F11" s="107"/>
@@ -13164,7 +13188,7 @@
       <c r="H11" s="168"/>
       <c r="I11" s="168"/>
       <c r="J11" s="168" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
@@ -13260,11 +13284,11 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="17.399999999999999">
-      <c r="B17" s="207" t="s">
-        <v>476</v>
-      </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
+      <c r="B17" s="210" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13283,7 +13307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:D87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -13313,18 +13339,18 @@
       <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="230" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="229"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="232"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="17" t="s">
@@ -13343,13 +13369,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>34</v>
@@ -13451,7 +13477,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1">
@@ -13535,7 +13561,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="66"/>
       <c r="J11" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="64" customFormat="1">
@@ -13557,7 +13583,7 @@
       <c r="H12" s="120"/>
       <c r="I12" s="66"/>
       <c r="J12" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="64" customFormat="1" ht="34.799999999999997">
@@ -13578,7 +13604,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H13" s="121">
         <v>0</v>
@@ -13605,7 +13631,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="29"/>
       <c r="H14" s="122" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="61" t="s">
@@ -13629,7 +13655,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="29"/>
       <c r="H15" s="122" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="61" t="s">
@@ -13657,11 +13683,11 @@
         <v>418</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="43" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1" ht="87">
@@ -13683,7 +13709,7 @@
         <v>428</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="43"/>
@@ -13693,13 +13719,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="32"/>
@@ -13707,7 +13733,7 @@
       <c r="H18" s="92"/>
       <c r="I18" s="42"/>
       <c r="J18" s="43" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="34.799999999999997">
@@ -13728,7 +13754,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H19" s="92">
         <v>1</v>
@@ -13829,18 +13855,18 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="230" t="s">
-        <v>464</v>
-      </c>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
+      <c r="B25" s="233" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" s="234"/>
+      <c r="D25" s="235"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="189" t="s">
-        <v>539</v>
-      </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
+      <c r="B26" s="192" t="s">
+        <v>538</v>
+      </c>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="156"/>
@@ -13849,18 +13875,18 @@
       <c r="D27" s="156"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="227" t="s">
-        <v>632</v>
-      </c>
-      <c r="B28" s="228"/>
-      <c r="C28" s="228"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="228"/>
-      <c r="F28" s="228"/>
-      <c r="G28" s="228"/>
-      <c r="H28" s="228"/>
-      <c r="I28" s="228"/>
-      <c r="J28" s="229"/>
+      <c r="A28" s="230" t="s">
+        <v>629</v>
+      </c>
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="232"/>
     </row>
     <row r="29" spans="1:10" ht="34.799999999999997">
       <c r="A29" s="17" t="s">
@@ -13879,13 +13905,13 @@
         <v>29</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G29" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I29" s="82" t="s">
         <v>253</v>
@@ -13947,10 +13973,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>68</v>
@@ -13962,22 +13988,22 @@
       <c r="G32" s="42"/>
       <c r="H32" s="56"/>
       <c r="I32" s="42" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J32" s="43"/>
     </row>
-    <row r="33" spans="1:10" s="235" customFormat="1">
+    <row r="33" spans="1:10" s="183" customFormat="1">
       <c r="A33" s="175">
         <v>4</v>
       </c>
-      <c r="B33" s="233" t="s">
-        <v>636</v>
-      </c>
-      <c r="C33" s="233" t="s">
-        <v>565</v>
-      </c>
-      <c r="D33" s="233" t="s">
-        <v>637</v>
+      <c r="B33" s="181" t="s">
+        <v>633</v>
+      </c>
+      <c r="C33" s="181" t="s">
+        <v>564</v>
+      </c>
+      <c r="D33" s="181" t="s">
+        <v>634</v>
       </c>
       <c r="E33" s="175"/>
       <c r="F33" s="177" t="s">
@@ -13986,9 +14012,9 @@
       <c r="G33" s="176"/>
       <c r="H33" s="175"/>
       <c r="I33" s="176" t="s">
-        <v>638</v>
-      </c>
-      <c r="J33" s="234"/>
+        <v>635</v>
+      </c>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="156"/>
@@ -13998,11 +14024,11 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="156"/>
-      <c r="B35" s="189" t="s">
-        <v>639</v>
-      </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
+      <c r="B35" s="192" t="s">
+        <v>636</v>
+      </c>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="156"/>
@@ -14011,18 +14037,18 @@
       <c r="D36" s="156"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="227" t="s">
-        <v>627</v>
-      </c>
-      <c r="B37" s="228"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="228"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="228"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="228"/>
-      <c r="I37" s="228"/>
-      <c r="J37" s="229"/>
+      <c r="A37" s="230" t="s">
+        <v>624</v>
+      </c>
+      <c r="B37" s="231"/>
+      <c r="C37" s="231"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="231"/>
+      <c r="F37" s="231"/>
+      <c r="G37" s="231"/>
+      <c r="H37" s="231"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="232"/>
     </row>
     <row r="38" spans="1:10" ht="34.799999999999997">
       <c r="A38" s="17" t="s">
@@ -14041,13 +14067,13 @@
         <v>29</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G38" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H38" s="82" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I38" s="82" t="s">
         <v>253</v>
@@ -14133,23 +14159,23 @@
         <v>4</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="32" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="96"/>
       <c r="I42" s="42"/>
       <c r="J42" s="43" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="87">
@@ -14157,23 +14183,23 @@
         <v>5</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="32" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="56"/>
       <c r="I43" s="42"/>
       <c r="J43" s="43" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="52.2">
@@ -14181,13 +14207,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>410</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="32"/>
@@ -14199,11 +14225,11 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="B46" s="189" t="s">
-        <v>658</v>
-      </c>
-      <c r="C46" s="189"/>
-      <c r="D46" s="189"/>
+      <c r="B46" s="192" t="s">
+        <v>655</v>
+      </c>
+      <c r="C46" s="192"/>
+      <c r="D46" s="192"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="156"/>
@@ -14212,18 +14238,18 @@
       <c r="D47" s="156"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="227" t="s">
-        <v>646</v>
-      </c>
-      <c r="B48" s="228"/>
-      <c r="C48" s="228"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="228"/>
-      <c r="H48" s="228"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="229"/>
+      <c r="A48" s="230" t="s">
+        <v>643</v>
+      </c>
+      <c r="B48" s="231"/>
+      <c r="C48" s="231"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="231"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="232"/>
     </row>
     <row r="49" spans="1:10" ht="34.799999999999997">
       <c r="A49" s="17" t="s">
@@ -14242,13 +14268,13 @@
         <v>29</v>
       </c>
       <c r="F49" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G49" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H49" s="82" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I49" s="82" t="s">
         <v>253</v>
@@ -14310,10 +14336,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D52" s="42" t="s">
         <v>61</v>
@@ -14325,7 +14351,7 @@
       <c r="G52" s="42"/>
       <c r="H52" s="56"/>
       <c r="I52" s="42" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J52" s="43"/>
     </row>
@@ -14334,10 +14360,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D53" s="42" t="s">
         <v>61</v>
@@ -14350,29 +14376,29 @@
       <c r="H53" s="56"/>
       <c r="I53" s="42"/>
       <c r="J53" s="43" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="189" t="s">
-        <v>654</v>
-      </c>
-      <c r="C55" s="189"/>
-      <c r="D55" s="189"/>
+      <c r="B55" s="192" t="s">
+        <v>651</v>
+      </c>
+      <c r="C55" s="192"/>
+      <c r="D55" s="192"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="227" t="s">
-        <v>772</v>
-      </c>
-      <c r="B57" s="228"/>
-      <c r="C57" s="228"/>
-      <c r="D57" s="228"/>
-      <c r="E57" s="228"/>
-      <c r="F57" s="228"/>
-      <c r="G57" s="228"/>
-      <c r="H57" s="228"/>
-      <c r="I57" s="228"/>
-      <c r="J57" s="229"/>
+      <c r="A57" s="230" t="s">
+        <v>769</v>
+      </c>
+      <c r="B57" s="231"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="231"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="231"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="232"/>
     </row>
     <row r="58" spans="1:10" ht="34.799999999999997">
       <c r="A58" s="17" t="s">
@@ -14391,13 +14417,13 @@
         <v>29</v>
       </c>
       <c r="F58" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G58" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H58" s="82" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I58" s="82" t="s">
         <v>253</v>
@@ -14459,10 +14485,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>61</v>
@@ -14474,7 +14500,7 @@
       <c r="G61" s="42"/>
       <c r="H61" s="56"/>
       <c r="I61" s="42" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J61" s="43"/>
     </row>
@@ -14486,7 +14512,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>371</v>
@@ -14510,7 +14536,7 @@
         <v>249</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>372</v>
@@ -14534,7 +14560,7 @@
         <v>401</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>373</v>
@@ -14556,7 +14582,7 @@
         <v>402</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>371</v>
@@ -14571,25 +14597,25 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="230" t="s">
-        <v>773</v>
-      </c>
-      <c r="C67" s="231"/>
-      <c r="D67" s="232"/>
+      <c r="B67" s="233" t="s">
+        <v>770</v>
+      </c>
+      <c r="C67" s="234"/>
+      <c r="D67" s="235"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="227" t="s">
-        <v>647</v>
-      </c>
-      <c r="B69" s="228"/>
-      <c r="C69" s="228"/>
-      <c r="D69" s="228"/>
-      <c r="E69" s="228"/>
-      <c r="F69" s="228"/>
-      <c r="G69" s="228"/>
-      <c r="H69" s="228"/>
-      <c r="I69" s="228"/>
-      <c r="J69" s="229"/>
+      <c r="A69" s="230" t="s">
+        <v>644</v>
+      </c>
+      <c r="B69" s="231"/>
+      <c r="C69" s="231"/>
+      <c r="D69" s="231"/>
+      <c r="E69" s="231"/>
+      <c r="F69" s="231"/>
+      <c r="G69" s="231"/>
+      <c r="H69" s="231"/>
+      <c r="I69" s="231"/>
+      <c r="J69" s="232"/>
     </row>
     <row r="70" spans="1:10" ht="34.799999999999997">
       <c r="A70" s="17" t="s">
@@ -14608,13 +14634,13 @@
         <v>29</v>
       </c>
       <c r="F70" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G70" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H70" s="82" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I70" s="82" t="s">
         <v>253</v>
@@ -14676,10 +14702,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D73" s="42" t="s">
         <v>61</v>
@@ -14691,7 +14717,7 @@
       <c r="G73" s="42"/>
       <c r="H73" s="56"/>
       <c r="I73" s="42" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J73" s="43"/>
     </row>
@@ -14700,10 +14726,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>61</v>
@@ -14715,32 +14741,32 @@
       <c r="G74" s="42"/>
       <c r="H74" s="56"/>
       <c r="I74" s="43" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="B76" s="189" t="s">
-        <v>645</v>
-      </c>
-      <c r="C76" s="189"/>
-      <c r="D76" s="189"/>
+      <c r="B76" s="192" t="s">
+        <v>642</v>
+      </c>
+      <c r="C76" s="192"/>
+      <c r="D76" s="192"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="227" t="s">
-        <v>659</v>
-      </c>
-      <c r="B78" s="228"/>
-      <c r="C78" s="228"/>
-      <c r="D78" s="228"/>
-      <c r="E78" s="228"/>
-      <c r="F78" s="228"/>
-      <c r="G78" s="228"/>
-      <c r="H78" s="228"/>
-      <c r="I78" s="228"/>
-      <c r="J78" s="229"/>
+      <c r="A78" s="230" t="s">
+        <v>656</v>
+      </c>
+      <c r="B78" s="231"/>
+      <c r="C78" s="231"/>
+      <c r="D78" s="231"/>
+      <c r="E78" s="231"/>
+      <c r="F78" s="231"/>
+      <c r="G78" s="231"/>
+      <c r="H78" s="231"/>
+      <c r="I78" s="231"/>
+      <c r="J78" s="232"/>
     </row>
     <row r="79" spans="1:10" ht="34.799999999999997">
       <c r="A79" s="17" t="s">
@@ -14759,13 +14785,13 @@
         <v>29</v>
       </c>
       <c r="F79" s="82" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G79" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H79" s="82" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I79" s="82" t="s">
         <v>34</v>
@@ -14779,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C80" s="42" t="s">
         <v>2</v>
@@ -14803,7 +14829,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C81" s="42" t="s">
         <v>127</v>
@@ -14827,10 +14853,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D82" s="42" t="s">
         <v>68</v>
@@ -14842,7 +14868,7 @@
       <c r="G82" s="42"/>
       <c r="H82" s="56"/>
       <c r="I82" s="42" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J82" s="43"/>
     </row>
@@ -14851,7 +14877,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C83" s="42" t="s">
         <v>430</v>
@@ -14866,7 +14892,7 @@
       <c r="G83" s="42"/>
       <c r="H83" s="56"/>
       <c r="I83" s="42" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J83" s="43"/>
     </row>
@@ -14875,10 +14901,10 @@
         <v>5</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D84" s="42" t="s">
         <v>423</v>
@@ -14889,7 +14915,7 @@
       <c r="H84" s="56"/>
       <c r="I84" s="42"/>
       <c r="J84" s="43" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -14900,7 +14926,7 @@
         <v>73</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D85" s="42" t="s">
         <v>423</v>
@@ -14911,18 +14937,24 @@
       <c r="H85" s="56"/>
       <c r="I85" s="42"/>
       <c r="J85" s="43" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="B87" s="189" t="s">
-        <v>664</v>
-      </c>
-      <c r="C87" s="189"/>
-      <c r="D87" s="189"/>
+      <c r="B87" s="192" t="s">
+        <v>661</v>
+      </c>
+      <c r="C87" s="192"/>
+      <c r="D87" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A78:J78"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B46:D46"/>
@@ -14932,12 +14964,6 @@
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -14952,7 +14978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -14981,18 +15009,18 @@
       <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="227" t="s">
-        <v>756</v>
-      </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="229"/>
+      <c r="A2" s="230" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="232"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -15011,13 +15039,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="45" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>34</v>
@@ -15094,7 +15122,7 @@
       <c r="G6" s="42"/>
       <c r="H6" s="56"/>
       <c r="I6" s="42" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J6" s="135" t="s">
         <v>314</v>
@@ -15129,10 +15157,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="102" t="s">
+        <v>581</v>
+      </c>
+      <c r="C8" s="102" t="s">
         <v>583</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>585</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>60</v>
@@ -15142,10 +15170,10 @@
       <c r="G8" s="102"/>
       <c r="H8" s="105"/>
       <c r="I8" s="102" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J8" s="139" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15213,7 +15241,7 @@
       <c r="H11" s="60"/>
       <c r="I11" s="44"/>
       <c r="J11" s="136" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15235,7 +15263,7 @@
       <c r="H12" s="60"/>
       <c r="I12" s="44"/>
       <c r="J12" s="136" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15283,7 +15311,7 @@
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15291,10 +15319,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>305</v>
@@ -15309,7 +15337,7 @@
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15320,7 +15348,7 @@
         <v>333</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>305</v>
@@ -15335,7 +15363,7 @@
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15343,10 +15371,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D17" s="104" t="s">
         <v>305</v>
@@ -15361,7 +15389,7 @@
       </c>
       <c r="I17" s="104"/>
       <c r="J17" s="140" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15369,7 +15397,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>331</v>
@@ -15387,7 +15415,7 @@
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="136" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15395,7 +15423,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>327</v>
@@ -15413,7 +15441,7 @@
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15421,7 +15449,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>332</v>
@@ -15439,7 +15467,7 @@
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="59" customFormat="1" ht="34.799999999999997">
@@ -15447,20 +15475,20 @@
         <v>18</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C21" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>540</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>541</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="53" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H21" s="60">
         <v>0</v>
@@ -15473,7 +15501,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>326</v>
@@ -15486,10 +15514,10 @@
         <v>202</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="62"/>
@@ -15499,7 +15527,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>22</v>
@@ -15539,7 +15567,7 @@
       <c r="H24" s="60"/>
       <c r="I24" s="44"/>
       <c r="J24" s="147" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="59" customFormat="1" ht="17.399999999999999">
@@ -15547,7 +15575,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>328</v>
@@ -15563,7 +15591,7 @@
       <c r="H25" s="60"/>
       <c r="I25" s="44"/>
       <c r="J25" s="140" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999">
@@ -15579,11 +15607,11 @@
       <c r="J26" s="137"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="B27" s="230" t="s">
-        <v>479</v>
-      </c>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="B27" s="233" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" s="234"/>
+      <c r="D27" s="235"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="49"/>
@@ -15604,18 +15632,18 @@
       <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="227" t="s">
-        <v>493</v>
-      </c>
-      <c r="B29" s="228"/>
-      <c r="C29" s="228"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="229"/>
+      <c r="A29" s="230" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="232"/>
     </row>
     <row r="30" spans="1:10" ht="34.799999999999997">
       <c r="A30" s="17" t="s">
@@ -15634,13 +15662,13 @@
         <v>29</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>219</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I30" s="45" t="s">
         <v>218</v>
@@ -15705,7 +15733,7 @@
         <v>216</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>60</v>
@@ -15742,7 +15770,7 @@
       <c r="H34" s="105"/>
       <c r="I34" s="102"/>
       <c r="J34" s="138" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999">
@@ -15753,7 +15781,7 @@
         <v>188</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D35" s="102" t="s">
         <v>60</v>
@@ -15774,10 +15802,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D36" s="102" t="s">
         <v>60</v>
@@ -15787,10 +15815,10 @@
       <c r="G36" s="102"/>
       <c r="H36" s="105"/>
       <c r="I36" s="102" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J36" s="139" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999">
@@ -15820,7 +15848,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="102" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C38" s="102" t="s">
         <v>344</v>
@@ -15844,7 +15872,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C39" s="104" t="s">
         <v>201</v>
@@ -15868,10 +15896,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D40" s="104" t="s">
         <v>79</v>
@@ -15883,10 +15911,10 @@
       <c r="G40" s="104"/>
       <c r="H40" s="106"/>
       <c r="I40" s="104" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J40" s="174" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="179" customFormat="1" ht="17.399999999999999">
@@ -15894,10 +15922,10 @@
         <v>11</v>
       </c>
       <c r="B41" s="176" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C41" s="176" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D41" s="176" t="s">
         <v>60</v>
@@ -15908,7 +15936,7 @@
       <c r="H41" s="175"/>
       <c r="I41" s="176"/>
       <c r="J41" s="178" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="34.799999999999997">
@@ -15916,7 +15944,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C42" s="102" t="s">
         <v>343</v>
@@ -15932,7 +15960,7 @@
       </c>
       <c r="I42" s="102"/>
       <c r="J42" s="138" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="179" customFormat="1" ht="17.399999999999999">
@@ -15954,7 +15982,7 @@
       <c r="H43" s="175"/>
       <c r="I43" s="176"/>
       <c r="J43" s="178" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999">
@@ -15978,7 +16006,7 @@
       </c>
       <c r="I44" s="102"/>
       <c r="J44" s="139" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="179" customFormat="1" ht="17.399999999999999">
@@ -15986,7 +16014,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="176" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C45" s="176" t="s">
         <v>353</v>
@@ -16000,7 +16028,7 @@
       <c r="H45" s="175"/>
       <c r="I45" s="176"/>
       <c r="J45" s="178" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999">
@@ -16024,7 +16052,7 @@
       </c>
       <c r="I46" s="102"/>
       <c r="J46" s="139" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="69.599999999999994">
@@ -16048,7 +16076,7 @@
       </c>
       <c r="I47" s="102"/>
       <c r="J47" s="138" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.399999999999999">
@@ -16074,7 +16102,7 @@
       </c>
       <c r="I48" s="102"/>
       <c r="J48" s="138" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999">
@@ -16100,7 +16128,7 @@
       </c>
       <c r="I49" s="102"/>
       <c r="J49" s="141" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
@@ -16108,13 +16136,13 @@
         <v>21</v>
       </c>
       <c r="B50" s="102" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D50" s="102" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E50" s="105"/>
       <c r="F50" s="107" t="s">
@@ -16150,7 +16178,7 @@
       </c>
       <c r="I51" s="102"/>
       <c r="J51" s="141" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
@@ -16172,7 +16200,7 @@
       <c r="H52" s="105"/>
       <c r="I52" s="102"/>
       <c r="J52" s="141" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
@@ -16188,11 +16216,11 @@
       <c r="J53" s="137"/>
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
-      <c r="B54" s="230" t="s">
-        <v>481</v>
-      </c>
-      <c r="C54" s="231"/>
-      <c r="D54" s="232"/>
+      <c r="B54" s="233" t="s">
+        <v>480</v>
+      </c>
+      <c r="C54" s="234"/>
+      <c r="D54" s="235"/>
       <c r="E54" s="50"/>
       <c r="F54" s="50"/>
       <c r="G54" s="49"/>
@@ -16201,18 +16229,18 @@
       <c r="J54" s="137"/>
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999">
-      <c r="A56" s="227" t="s">
-        <v>494</v>
-      </c>
-      <c r="B56" s="228"/>
-      <c r="C56" s="228"/>
-      <c r="D56" s="228"/>
-      <c r="E56" s="228"/>
-      <c r="F56" s="228"/>
-      <c r="G56" s="228"/>
-      <c r="H56" s="228"/>
-      <c r="I56" s="228"/>
-      <c r="J56" s="229"/>
+      <c r="A56" s="230" t="s">
+        <v>493</v>
+      </c>
+      <c r="B56" s="231"/>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="232"/>
     </row>
     <row r="57" spans="1:10" ht="34.799999999999997">
       <c r="A57" s="17" t="s">
@@ -16231,13 +16259,13 @@
         <v>29</v>
       </c>
       <c r="F57" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>32</v>
       </c>
       <c r="H57" s="82" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I57" s="45" t="s">
         <v>34</v>
@@ -16327,7 +16355,7 @@
         <v>316</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E61" s="60"/>
       <c r="F61" s="53" t="s">
@@ -16348,7 +16376,7 @@
         <v>188</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D62" s="104" t="s">
         <v>60</v>
@@ -16372,7 +16400,7 @@
         <v>212</v>
       </c>
       <c r="C63" s="104" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D63" s="104" t="s">
         <v>60</v>
@@ -16385,7 +16413,7 @@
         <v>322</v>
       </c>
       <c r="J63" s="139" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999">
@@ -16418,7 +16446,7 @@
         <v>12</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D65" s="104" t="s">
         <v>69</v>
@@ -16463,10 +16491,10 @@
         <v>9</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D67" s="44" t="s">
         <v>63</v>
@@ -16488,7 +16516,7 @@
         <v>228</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D68" s="104" t="s">
         <v>62</v>
@@ -16500,7 +16528,7 @@
       <c r="G68" s="104"/>
       <c r="H68" s="106"/>
       <c r="I68" s="104" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J68" s="136"/>
     </row>
@@ -16581,10 +16609,10 @@
         <v>14</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D72" s="44" t="s">
         <v>103</v>
@@ -16595,7 +16623,7 @@
       <c r="H72" s="60"/>
       <c r="I72" s="44"/>
       <c r="J72" s="62" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.399999999999999">
@@ -16611,11 +16639,11 @@
       <c r="J73" s="137"/>
     </row>
     <row r="74" spans="1:10" ht="17.399999999999999">
-      <c r="B74" s="230" t="s">
-        <v>482</v>
-      </c>
-      <c r="C74" s="231"/>
-      <c r="D74" s="232"/>
+      <c r="B74" s="233" t="s">
+        <v>481</v>
+      </c>
+      <c r="C74" s="234"/>
+      <c r="D74" s="235"/>
       <c r="E74" s="50"/>
       <c r="F74" s="50"/>
       <c r="G74" s="50"/>
@@ -16624,18 +16652,18 @@
       <c r="J74" s="137"/>
     </row>
     <row r="76" spans="1:10" ht="17.399999999999999">
-      <c r="A76" s="227" t="s">
-        <v>495</v>
-      </c>
-      <c r="B76" s="228"/>
-      <c r="C76" s="228"/>
-      <c r="D76" s="228"/>
-      <c r="E76" s="228"/>
-      <c r="F76" s="228"/>
-      <c r="G76" s="228"/>
-      <c r="H76" s="228"/>
-      <c r="I76" s="228"/>
-      <c r="J76" s="229"/>
+      <c r="A76" s="230" t="s">
+        <v>494</v>
+      </c>
+      <c r="B76" s="231"/>
+      <c r="C76" s="231"/>
+      <c r="D76" s="231"/>
+      <c r="E76" s="231"/>
+      <c r="F76" s="231"/>
+      <c r="G76" s="231"/>
+      <c r="H76" s="231"/>
+      <c r="I76" s="231"/>
+      <c r="J76" s="232"/>
     </row>
     <row r="77" spans="1:10" ht="34.799999999999997">
       <c r="A77" s="17" t="s">
@@ -16654,13 +16682,13 @@
         <v>234</v>
       </c>
       <c r="F77" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>233</v>
       </c>
       <c r="H77" s="82" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I77" s="45" t="s">
         <v>232</v>
@@ -16725,7 +16753,7 @@
         <v>216</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>76</v>
@@ -16737,7 +16765,7 @@
       <c r="G80" s="70"/>
       <c r="H80" s="96"/>
       <c r="I80" s="42" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J80" s="134"/>
     </row>
@@ -16797,7 +16825,7 @@
         <v>212</v>
       </c>
       <c r="C83" s="104" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D83" s="104" t="s">
         <v>60</v>
@@ -16810,7 +16838,7 @@
         <v>322</v>
       </c>
       <c r="J83" s="139" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.399999999999999">
@@ -16843,7 +16871,7 @@
         <v>12</v>
       </c>
       <c r="C85" s="104" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D85" s="104" t="s">
         <v>69</v>
@@ -16882,7 +16910,7 @@
         <v>362</v>
       </c>
       <c r="J86" s="139" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.399999999999999">
@@ -16908,7 +16936,7 @@
         <v>362</v>
       </c>
       <c r="J87" s="139" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.399999999999999">
@@ -16946,11 +16974,11 @@
       <c r="J89" s="137"/>
     </row>
     <row r="90" spans="1:10" ht="17.399999999999999">
-      <c r="B90" s="230" t="s">
-        <v>594</v>
-      </c>
-      <c r="C90" s="231"/>
-      <c r="D90" s="232"/>
+      <c r="B90" s="233" t="s">
+        <v>592</v>
+      </c>
+      <c r="C90" s="234"/>
+      <c r="D90" s="235"/>
       <c r="E90" s="50"/>
       <c r="F90" s="50"/>
       <c r="G90" s="49"/>
@@ -17005,18 +17033,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="181" t="s">
-        <v>725</v>
-      </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183"/>
+      <c r="A2" s="184" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -17035,13 +17063,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>34</v>
@@ -17072,8 +17100,8 @@
       <c r="G4" s="38"/>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="187" t="s">
-        <v>727</v>
+      <c r="J4" s="190" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="145" customFormat="1" ht="17.399999999999999">
@@ -17084,7 +17112,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>70</v>
@@ -17096,7 +17124,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="105"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="188"/>
+      <c r="J5" s="191"/>
     </row>
     <row r="6" spans="1:10" s="31" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="51">
@@ -17116,7 +17144,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H6" s="92">
         <v>1</v>
@@ -17213,11 +17241,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="184" t="s">
-        <v>456</v>
-      </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="186"/>
+      <c r="B12" s="187" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17260,18 +17288,18 @@
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="181" t="s">
-        <v>683</v>
-      </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183"/>
+      <c r="A2" s="184" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -17290,13 +17318,13 @@
         <v>155</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G3" s="82" t="s">
         <v>154</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="82" t="s">
         <v>153</v>
@@ -17313,22 +17341,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="56"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="187" t="s">
-        <v>722</v>
+      <c r="J4" s="190" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="145" customFormat="1" ht="17.399999999999999">
@@ -17339,7 +17367,7 @@
         <v>110</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>70</v>
@@ -17351,7 +17379,7 @@
       <c r="G5" s="47"/>
       <c r="H5" s="105"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="188"/>
+      <c r="J5" s="191"/>
     </row>
     <row r="6" spans="1:10" s="31" customFormat="1" ht="34.799999999999997">
       <c r="A6" s="51">
@@ -17371,7 +17399,7 @@
         <v>133</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H6" s="92">
         <v>1</v>
@@ -17468,11 +17496,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999">
-      <c r="B12" s="184" t="s">
-        <v>686</v>
-      </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="186"/>
+      <c r="B12" s="187" t="s">
+        <v>683</v>
+      </c>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17492,7 +17520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -17516,18 +17546,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="193" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="192"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -17546,13 +17576,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -17606,7 +17636,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.799999999999997">
@@ -17630,7 +17660,7 @@
       <c r="H6" s="56"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17644,7 +17674,7 @@
         <v>259</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
@@ -17652,7 +17682,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -17666,7 +17696,7 @@
         <v>260</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -17674,7 +17704,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17682,13 +17712,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="98" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="32" t="s">
@@ -17700,7 +17730,7 @@
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -17708,13 +17738,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="98" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="32" t="s">
@@ -17726,7 +17756,7 @@
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
@@ -17747,7 +17777,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H11" s="92">
         <v>1</v>
@@ -17776,7 +17806,7 @@
       <c r="H12" s="56"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -17822,7 +17852,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -17849,11 +17879,11 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="48"/>
-      <c r="B17" s="189" t="s">
-        <v>455</v>
-      </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
+      <c r="B17" s="192" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="48"/>
@@ -17864,11 +17894,11 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="48"/>
-      <c r="B18" s="189" t="s">
-        <v>456</v>
-      </c>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
+      <c r="B18" s="192" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
       <c r="G18" s="48"/>
@@ -17896,8 +17926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
@@ -17921,18 +17951,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="115" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -17951,13 +17981,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -18035,7 +18065,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="6"/>
       <c r="J6" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -18100,7 +18130,7 @@
         <v>30</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H9" s="92">
         <v>1</v>
@@ -18119,7 +18149,7 @@
         <v>380</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="32"/>
@@ -18127,7 +18157,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="6"/>
       <c r="J10" s="102" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
@@ -18148,7 +18178,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H11" s="92">
         <v>1</v>
@@ -18177,7 +18207,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="42"/>
       <c r="J12" s="102" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -18250,56 +18280,56 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="25"/>
-      <c r="B17" s="189" t="s">
-        <v>457</v>
-      </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
+      <c r="B17" s="192" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="25"/>
-      <c r="B18" s="196" t="s">
-        <v>553</v>
-      </c>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
+      <c r="B18" s="199" t="s">
+        <v>552</v>
+      </c>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="25"/>
-      <c r="B19" s="197" t="s">
-        <v>731</v>
-      </c>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+      <c r="B19" s="200" t="s">
+        <v>728</v>
+      </c>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="202"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="193" t="s">
-        <v>707</v>
-      </c>
-      <c r="B21" s="194"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="195"/>
+      <c r="A21" s="196" t="s">
+        <v>704</v>
+      </c>
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
     </row>
     <row r="22" spans="1:10" ht="34.799999999999997">
       <c r="A22" s="19" t="s">
@@ -18318,13 +18348,13 @@
         <v>29</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>34</v>
@@ -18386,7 +18416,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>389</v>
@@ -18410,7 +18440,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>430</v>
@@ -18447,7 +18477,7 @@
         <v>30</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H27" s="92">
         <v>1</v>
@@ -18457,11 +18487,11 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="25"/>
-      <c r="B29" s="189" t="s">
-        <v>709</v>
-      </c>
-      <c r="C29" s="189"/>
-      <c r="D29" s="189"/>
+      <c r="B29" s="192" t="s">
+        <v>706</v>
+      </c>
+      <c r="C29" s="192"/>
+      <c r="D29" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18510,18 +18540,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -18546,7 +18576,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -18608,13 +18638,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
@@ -18624,7 +18654,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.799999999999997">
@@ -18648,7 +18678,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="2"/>
       <c r="J7" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.799999999999997">
@@ -18656,20 +18686,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C8" s="161" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D8" s="161" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E8" s="162"/>
       <c r="F8" s="163" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="164" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H8" s="160">
         <v>0</v>
@@ -18682,20 +18712,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C9" s="161" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" s="161" t="s">
         <v>669</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>672</v>
       </c>
       <c r="E9" s="162"/>
       <c r="F9" s="163" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="164" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H9" s="160">
         <v>0</v>
@@ -18708,27 +18738,27 @@
         <v>7</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C10" s="161" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E10" s="162"/>
       <c r="F10" s="163" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="164" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H10" s="160">
         <v>0</v>
       </c>
       <c r="I10" s="165"/>
       <c r="J10" s="103" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
@@ -18736,27 +18766,27 @@
         <v>8</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C11" s="161" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="161" t="s">
         <v>558</v>
-      </c>
-      <c r="D11" s="161" t="s">
-        <v>559</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="163" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="164" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H11" s="160">
         <v>0</v>
       </c>
       <c r="I11" s="165"/>
       <c r="J11" s="103" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34.799999999999997">
@@ -18777,7 +18807,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H12" s="94">
         <v>1</v>
@@ -18863,7 +18893,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>63</v>
@@ -18879,19 +18909,19 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="25"/>
-      <c r="B18" s="200" t="s">
-        <v>464</v>
-      </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="B18" s="203" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" s="204"/>
+      <c r="D18" s="205"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="25"/>
-      <c r="B19" s="200" t="s">
-        <v>467</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="B19" s="203" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="204"/>
+      <c r="D19" s="205"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="21"/>
@@ -18940,18 +18970,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -18976,7 +19006,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -19131,11 +19161,11 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="25"/>
-      <c r="B11" s="203" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
+      <c r="B11" s="206" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="25"/>
@@ -19186,18 +19216,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="196" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="34.799999999999997">
       <c r="A3" s="19" t="s">
@@ -19222,7 +19252,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>34</v>
@@ -19300,7 +19330,7 @@
       <c r="H6" s="96"/>
       <c r="I6" s="42"/>
       <c r="J6" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
@@ -19324,7 +19354,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="42"/>
       <c r="J7" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
@@ -19358,7 +19388,7 @@
         <v>259</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="70"/>
@@ -19366,7 +19396,7 @@
       <c r="H9" s="96"/>
       <c r="I9" s="42"/>
       <c r="J9" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999">
@@ -19380,7 +19410,7 @@
         <v>260</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="70"/>
@@ -19388,7 +19418,7 @@
       <c r="H10" s="96"/>
       <c r="I10" s="42"/>
       <c r="J10" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.799999999999997">
@@ -19409,7 +19439,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H11" s="92">
         <v>1</v>
@@ -19510,18 +19540,18 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="17.399999999999999">
-      <c r="B17" s="204" t="s">
-        <v>513</v>
-      </c>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
+      <c r="B17" s="207" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
     </row>
     <row r="18" spans="2:4" ht="17.399999999999999">
-      <c r="B18" s="204" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
+      <c r="B18" s="207" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="3">
